--- a/rezultati/rezultati_tlrr_brez_slovar_fixed_lambda_fourier_transform/rezultati_tlrr_brez_slovar.xlsx
+++ b/rezultati/rezultati_tlrr_brez_slovar_fixed_lambda_fourier_transform/rezultati_tlrr_brez_slovar.xlsx
@@ -81,7 +81,7 @@
   <cols>
     <col min="1" max="1" width="10.6015625" customWidth="true"/>
     <col min="2" max="2" width="12.82421875" customWidth="true"/>
-    <col min="3" max="3" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
@@ -115,16 +115,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>62.180162799999998</v>
+        <v>15.2544498</v>
       </c>
       <c r="D2" s="0">
-        <v>17.260354660940877</v>
+        <v>17.277246462756722</v>
       </c>
       <c r="E2" s="0">
-        <v>0.14459998919674136</v>
+        <v>0.14431944333160909</v>
       </c>
       <c r="F2" s="0">
-        <v>0.28299362699800307</v>
+        <v>0.28244381261186069</v>
       </c>
     </row>
     <row r="3">
@@ -135,16 +135,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>63.296603099999999</v>
+        <v>15.050759299999999</v>
       </c>
       <c r="D3" s="0">
-        <v>15.782379632988157</v>
+        <v>15.836427061544853</v>
       </c>
       <c r="E3" s="0">
-        <v>0.47577573028223413</v>
+        <v>0.47838389215090027</v>
       </c>
       <c r="F3" s="0">
-        <v>0.40257469226278342</v>
+        <v>0.40007747278487021</v>
       </c>
     </row>
     <row r="4">
@@ -155,16 +155,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>63.245827400000003</v>
+        <v>15.2994276</v>
       </c>
       <c r="D4" s="0">
-        <v>14.505851677395311</v>
+        <v>14.494412512971355</v>
       </c>
       <c r="E4" s="0">
-        <v>0.28519577174418043</v>
+        <v>0.28406263015340372</v>
       </c>
       <c r="F4" s="0">
-        <v>0.51971524430378957</v>
+        <v>0.52040015107809501</v>
       </c>
     </row>
     <row r="5">
@@ -175,16 +175,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>63.435659399999999</v>
+        <v>15.2036333</v>
       </c>
       <c r="D5" s="0">
-        <v>15.345810576253227</v>
+        <v>15.321155663701235</v>
       </c>
       <c r="E5" s="0">
-        <v>0.32863102861220234</v>
+        <v>0.32835182861226747</v>
       </c>
       <c r="F5" s="0">
-        <v>0.37138524409904766</v>
+        <v>0.37244091930697765</v>
       </c>
     </row>
     <row r="6">
@@ -195,16 +195,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>63.239220099999997</v>
+        <v>15.0555524</v>
       </c>
       <c r="D6" s="0">
-        <v>15.228687349281589</v>
+        <v>15.210885263361957</v>
       </c>
       <c r="E6" s="0">
-        <v>0.29631210483176051</v>
+        <v>0.29738179417030708</v>
       </c>
       <c r="F6" s="0">
-        <v>0.46795683882834299</v>
+        <v>0.46891691902679633</v>
       </c>
     </row>
     <row r="7">
@@ -215,16 +215,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>62.9737565</v>
+        <v>15.2641975</v>
       </c>
       <c r="D7" s="0">
-        <v>15.932529620249923</v>
+        <v>15.936766232943747</v>
       </c>
       <c r="E7" s="0">
-        <v>0.25858492966876157</v>
+        <v>0.25921694259688971</v>
       </c>
       <c r="F7" s="0">
-        <v>0.30349391026575989</v>
+        <v>0.30334591476029199</v>
       </c>
     </row>
     <row r="8">
@@ -235,16 +235,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>63.126826600000001</v>
+        <v>15.0345475</v>
       </c>
       <c r="D8" s="0">
-        <v>14.440186050863694</v>
+        <v>14.476743359202377</v>
       </c>
       <c r="E8" s="0">
-        <v>0.27489550487436909</v>
+        <v>0.2772758230510397</v>
       </c>
       <c r="F8" s="0">
-        <v>0.33012941842431054</v>
+        <v>0.32874288443762711</v>
       </c>
     </row>
     <row r="9">
@@ -255,16 +255,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>28.372013599999999</v>
+        <v>10.0411927</v>
       </c>
       <c r="D9" s="0">
-        <v>15.380410845984208</v>
+        <v>15.386145854657505</v>
       </c>
       <c r="E9" s="0">
-        <v>0.5084882315784236</v>
+        <v>0.50975190032873952</v>
       </c>
       <c r="F9" s="0">
-        <v>0.34701565600089207</v>
+        <v>0.34678660854427218</v>
       </c>
     </row>
     <row r="10">
@@ -275,16 +275,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>28.099123299999999</v>
+        <v>10.183588800000001</v>
       </c>
       <c r="D10" s="0">
-        <v>14.922076395287561</v>
+        <v>14.906483309200604</v>
       </c>
       <c r="E10" s="0">
-        <v>0.33823633062911562</v>
+        <v>0.33630815497822653</v>
       </c>
       <c r="F10" s="0">
-        <v>0.41971812797559643</v>
+        <v>0.42047229125442248</v>
       </c>
     </row>
     <row r="11">
@@ -295,16 +295,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C11" s="0">
-        <v>28.182730200000002</v>
+        <v>9.8809235999999991</v>
       </c>
       <c r="D11" s="0">
-        <v>14.280051869389119</v>
+        <v>14.290470126305443</v>
       </c>
       <c r="E11" s="0">
-        <v>0.24697655992349823</v>
+        <v>0.24710882874022078</v>
       </c>
       <c r="F11" s="0">
-        <v>0.29398676246054523</v>
+        <v>0.2936343525597247</v>
       </c>
     </row>
     <row r="12">
@@ -315,16 +315,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>27.942280499999999</v>
+        <v>10.040313299999999</v>
       </c>
       <c r="D12" s="0">
-        <v>15.081589864666334</v>
+        <v>15.071955609333481</v>
       </c>
       <c r="E12" s="0">
-        <v>0.37054257899890813</v>
+        <v>0.36983992255890447</v>
       </c>
       <c r="F12" s="0">
-        <v>0.3403297268859416</v>
+        <v>0.34070742481968208</v>
       </c>
     </row>
     <row r="13">
@@ -335,16 +335,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C13" s="0">
-        <v>63.580836699999999</v>
+        <v>15.2754321</v>
       </c>
       <c r="D13" s="0">
-        <v>15.91750658526745</v>
+        <v>15.895863957154599</v>
       </c>
       <c r="E13" s="0">
-        <v>0.22881196286544397</v>
+        <v>0.22924247702942652</v>
       </c>
       <c r="F13" s="0">
-        <v>0.42023439753476322</v>
+        <v>0.42128280104410154</v>
       </c>
     </row>
     <row r="14">
@@ -355,16 +355,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>63.266798600000001</v>
+        <v>15.172752600000001</v>
       </c>
       <c r="D14" s="0">
-        <v>14.463339475632628</v>
+        <v>14.418400011682881</v>
       </c>
       <c r="E14" s="0">
-        <v>0.30797618504737961</v>
+        <v>0.3073729544918451</v>
       </c>
       <c r="F14" s="0">
-        <v>0.25472999291714643</v>
+        <v>0.25605134220593578</v>
       </c>
     </row>
     <row r="15">
@@ -375,16 +375,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>63.416614099999997</v>
+        <v>15.258487000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>14.64716482889094</v>
+        <v>14.658432493651187</v>
       </c>
       <c r="E15" s="0">
-        <v>0.20886618414760016</v>
+        <v>0.20927553130015183</v>
       </c>
       <c r="F15" s="0">
-        <v>0.26023730785131921</v>
+        <v>0.25989993703917003</v>
       </c>
     </row>
     <row r="16">
@@ -395,16 +395,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C16" s="0">
-        <v>63.393596600000002</v>
+        <v>14.9671526</v>
       </c>
       <c r="D16" s="0">
-        <v>15.241348232996749</v>
+        <v>15.221625161404582</v>
       </c>
       <c r="E16" s="0">
-        <v>0.29805364350498625</v>
+        <v>0.29526290027489932</v>
       </c>
       <c r="F16" s="0">
-        <v>0.51056674278154623</v>
+        <v>0.51172740523792037</v>
       </c>
     </row>
     <row r="17">
@@ -415,16 +415,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C17" s="0">
-        <v>62.8817296</v>
+        <v>14.8513816</v>
       </c>
       <c r="D17" s="0">
-        <v>14.730551675219221</v>
+        <v>14.765257605711028</v>
       </c>
       <c r="E17" s="0">
-        <v>0.31709017111922155</v>
+        <v>0.31986650410258211</v>
       </c>
       <c r="F17" s="0">
-        <v>0.57461351915988801</v>
+        <v>0.57232213521426012</v>
       </c>
     </row>
     <row r="18">
@@ -435,16 +435,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C18" s="0">
-        <v>62.943208400000003</v>
+        <v>14.7977554</v>
       </c>
       <c r="D18" s="0">
-        <v>14.356835691332046</v>
+        <v>14.358689854042732</v>
       </c>
       <c r="E18" s="0">
-        <v>0.21356671840203978</v>
+        <v>0.21475391358625151</v>
       </c>
       <c r="F18" s="0">
-        <v>0.61516004066147911</v>
+        <v>0.61502873746480646</v>
       </c>
     </row>
     <row r="19">
@@ -455,16 +455,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>64.074721699999998</v>
+        <v>15.3484263</v>
       </c>
       <c r="D19" s="0">
-        <v>16.292051867724201</v>
+        <v>16.278214839074753</v>
       </c>
       <c r="E19" s="0">
-        <v>0.22463461783536245</v>
+        <v>0.22277439831947515</v>
       </c>
       <c r="F19" s="0">
-        <v>0.37864493046931352</v>
+        <v>0.37924861027965778</v>
       </c>
     </row>
     <row r="20">
@@ -475,16 +475,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>63.151133399999999</v>
+        <v>15.2792637</v>
       </c>
       <c r="D20" s="0">
-        <v>14.6561025619263</v>
+        <v>14.683634539926491</v>
       </c>
       <c r="E20" s="0">
-        <v>0.31736686647328283</v>
+        <v>0.31651297689982638</v>
       </c>
       <c r="F20" s="0">
-        <v>0.36938844661615433</v>
+        <v>0.36821943642538491</v>
       </c>
     </row>
     <row r="21">
@@ -495,16 +495,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>64.111860199999995</v>
+        <v>15.0069307</v>
       </c>
       <c r="D21" s="0">
-        <v>16.424341614137028</v>
+        <v>16.479633576693015</v>
       </c>
       <c r="E21" s="0">
-        <v>0.21472582617694883</v>
+        <v>0.21618722869366397</v>
       </c>
       <c r="F21" s="0">
-        <v>0.30289209854149346</v>
+        <v>0.30097009547313563</v>
       </c>
     </row>
     <row r="22">
@@ -515,16 +515,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>63.931312200000001</v>
+        <v>16.245765899999999</v>
       </c>
       <c r="D22" s="0">
-        <v>15.701436977734019</v>
+        <v>15.710988043145392</v>
       </c>
       <c r="E22" s="0">
-        <v>0.38174838140383288</v>
+        <v>0.38229798200404791</v>
       </c>
       <c r="F22" s="0">
-        <v>0.40260041538862235</v>
+        <v>0.40215795644684654</v>
       </c>
     </row>
     <row r="23">
@@ -535,16 +535,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>63.689190500000002</v>
+        <v>15.3671068</v>
       </c>
       <c r="D23" s="0">
-        <v>15.049849259521013</v>
+        <v>14.997793312418057</v>
       </c>
       <c r="E23" s="0">
-        <v>0.29786002516839594</v>
+        <v>0.2957435530549225</v>
       </c>
       <c r="F23" s="0">
-        <v>0.42695094019003199</v>
+        <v>0.42951740945885863</v>
       </c>
     </row>
     <row r="24">
@@ -555,16 +555,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C24" s="0">
-        <v>63.303953800000002</v>
+        <v>15.267447799999999</v>
       </c>
       <c r="D24" s="0">
-        <v>15.420366964821429</v>
+        <v>15.40154615631832</v>
       </c>
       <c r="E24" s="0">
-        <v>0.37267518984732123</v>
+        <v>0.37063669370555696</v>
       </c>
       <c r="F24" s="0">
-        <v>0.37985161040876009</v>
+        <v>0.38067557499465271</v>
       </c>
     </row>
     <row r="25">
@@ -575,16 +575,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>64.099775399999999</v>
+        <v>15.0323533</v>
       </c>
       <c r="D25" s="0">
-        <v>15.573937411337726</v>
+        <v>15.558617677322623</v>
       </c>
       <c r="E25" s="0">
-        <v>0.50013824498661341</v>
+        <v>0.49879358912432609</v>
       </c>
       <c r="F25" s="0">
-        <v>0.36813892982026741</v>
+        <v>0.36878880763762356</v>
       </c>
     </row>
     <row r="26">
@@ -595,16 +595,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C26" s="0">
-        <v>63.634053000000002</v>
+        <v>15.1717032</v>
       </c>
       <c r="D26" s="0">
-        <v>15.07735168260006</v>
+        <v>15.044495169372748</v>
       </c>
       <c r="E26" s="0">
-        <v>0.40367543736382339</v>
+        <v>0.40154250134857533</v>
       </c>
       <c r="F26" s="0">
-        <v>0.35078454806918841</v>
+        <v>0.35211398975731706</v>
       </c>
     </row>
     <row r="27">
@@ -615,16 +615,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>62.905837499999997</v>
+        <v>15.023249699999999</v>
       </c>
       <c r="D27" s="0">
-        <v>14.284241552493279</v>
+        <v>14.274694740455002</v>
       </c>
       <c r="E27" s="0">
-        <v>0.52232768114008776</v>
+        <v>0.52026697154448631</v>
       </c>
       <c r="F27" s="0">
-        <v>0.36547125922634527</v>
+        <v>0.36587317586615475</v>
       </c>
     </row>
     <row r="28">
@@ -635,16 +635,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>27.287389099999999</v>
+        <v>9.5422402999999996</v>
       </c>
       <c r="D28" s="0">
-        <v>14.331621810433962</v>
+        <v>14.361715549250334</v>
       </c>
       <c r="E28" s="0">
-        <v>0.45578799544072768</v>
+        <v>0.45721345732576507</v>
       </c>
       <c r="F28" s="0">
-        <v>0.3817857263618451</v>
+        <v>0.38046525373802537</v>
       </c>
     </row>
     <row r="29">
@@ -655,16 +655,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C29" s="0">
-        <v>63.514166699999997</v>
+        <v>15.0247963</v>
       </c>
       <c r="D29" s="0">
-        <v>14.451097626620896</v>
+        <v>14.467864898371003</v>
       </c>
       <c r="E29" s="0">
-        <v>0.47510040308756685</v>
+        <v>0.474304664759154</v>
       </c>
       <c r="F29" s="0">
-        <v>0.44406802159824293</v>
+        <v>0.4432116180037054</v>
       </c>
     </row>
     <row r="30">
@@ -675,16 +675,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>63.855208599999997</v>
+        <v>15.053495</v>
       </c>
       <c r="D30" s="0">
-        <v>15.313812493917103</v>
+        <v>15.284853517879256</v>
       </c>
       <c r="E30" s="0">
-        <v>0.310716728620407</v>
+        <v>0.31000255355430856</v>
       </c>
       <c r="F30" s="0">
-        <v>0.27285445468941788</v>
+        <v>0.27376567652611039</v>
       </c>
     </row>
     <row r="31">
@@ -695,16 +695,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C31" s="0">
-        <v>63.347311900000001</v>
+        <v>15.038322600000001</v>
       </c>
       <c r="D31" s="0">
-        <v>14.061602668012949</v>
+        <v>14.111405818263689</v>
       </c>
       <c r="E31" s="0">
-        <v>0.35535478715986651</v>
+        <v>0.35709437971017827</v>
       </c>
       <c r="F31" s="0">
-        <v>0.46879137263361909</v>
+        <v>0.4661111082564226</v>
       </c>
     </row>
     <row r="32">
@@ -715,16 +715,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C32" s="0">
-        <v>63.520937199999999</v>
+        <v>15.073590299999999</v>
       </c>
       <c r="D32" s="0">
-        <v>14.930102083066316</v>
+        <v>14.91342765615453</v>
       </c>
       <c r="E32" s="0">
-        <v>0.37574593465497308</v>
+        <v>0.37438995641907841</v>
       </c>
       <c r="F32" s="0">
-        <v>0.47947708899565084</v>
+        <v>0.48039843211493533</v>
       </c>
     </row>
     <row r="33">
@@ -735,16 +735,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C33" s="0">
-        <v>63.581608299999999</v>
+        <v>14.9750242</v>
       </c>
       <c r="D33" s="0">
-        <v>15.149691420411299</v>
+        <v>15.151835255336479</v>
       </c>
       <c r="E33" s="0">
-        <v>0.37794081118321637</v>
+        <v>0.37816082372645426</v>
       </c>
       <c r="F33" s="0">
-        <v>0.52857356230375285</v>
+        <v>0.52844311687120427</v>
       </c>
     </row>
     <row r="34">
@@ -755,16 +755,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C34" s="0">
-        <v>59.1755572</v>
+        <v>14.285496800000001</v>
       </c>
       <c r="D34" s="0">
-        <v>12.366680970785655</v>
+        <v>12.372246002042548</v>
       </c>
       <c r="E34" s="0">
-        <v>0.070516363507370783</v>
+        <v>0.069931265050549349</v>
       </c>
       <c r="F34" s="0">
-        <v>0.39732317399583283</v>
+        <v>0.39706869140428713</v>
       </c>
     </row>
     <row r="35">
@@ -775,16 +775,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C35" s="0">
-        <v>27.6998541</v>
+        <v>10.059031900000001</v>
       </c>
       <c r="D35" s="0">
-        <v>14.892084153755629</v>
+        <v>14.88138643391723</v>
       </c>
       <c r="E35" s="0">
-        <v>0.54057505920146787</v>
+        <v>0.54008762211672923</v>
       </c>
       <c r="F35" s="0">
-        <v>0.35504113385697439</v>
+        <v>0.35547867918943399</v>
       </c>
     </row>
     <row r="36">
@@ -795,16 +795,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C36" s="0">
-        <v>64.068857300000005</v>
+        <v>15.080089900000001</v>
       </c>
       <c r="D36" s="0">
-        <v>16.237455256222237</v>
+        <v>16.19165114890928</v>
       </c>
       <c r="E36" s="0">
-        <v>0.49334878587046482</v>
+        <v>0.49075735498813144</v>
       </c>
       <c r="F36" s="0">
-        <v>0.34259394609720489</v>
+        <v>0.34440535044910026</v>
       </c>
     </row>
     <row r="37">
@@ -815,16 +815,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C37" s="0">
-        <v>28.357641900000001</v>
+        <v>10.223241</v>
       </c>
       <c r="D37" s="0">
-        <v>15.68483191806088</v>
+        <v>15.713687473842295</v>
       </c>
       <c r="E37" s="0">
-        <v>0.5419437954677907</v>
+        <v>0.54372194906154858</v>
       </c>
       <c r="F37" s="0">
-        <v>0.40552344665892776</v>
+        <v>0.40417848496016279</v>
       </c>
     </row>
     <row r="38">
@@ -835,16 +835,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C38" s="0">
-        <v>64.080142499999994</v>
+        <v>15.3945349</v>
       </c>
       <c r="D38" s="0">
-        <v>16.253884103286531</v>
+        <v>16.259293334896494</v>
       </c>
       <c r="E38" s="0">
-        <v>0.43851682088484711</v>
+        <v>0.43949962389359309</v>
       </c>
       <c r="F38" s="0">
-        <v>0.3587661883576545</v>
+        <v>0.35854283239381862</v>
       </c>
     </row>
     <row r="39">
@@ -855,16 +855,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C39" s="0">
-        <v>63.463978099999999</v>
+        <v>15.455018000000001</v>
       </c>
       <c r="D39" s="0">
-        <v>15.85806260240048</v>
+        <v>15.909280422083413</v>
       </c>
       <c r="E39" s="0">
-        <v>0.4025880817902649</v>
+        <v>0.4065672883036594</v>
       </c>
       <c r="F39" s="0">
-        <v>0.30033311328466755</v>
+        <v>0.29856735935425233</v>
       </c>
     </row>
     <row r="40">
@@ -875,16 +875,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C40" s="0">
-        <v>27.5743802</v>
+        <v>10.1548292</v>
       </c>
       <c r="D40" s="0">
-        <v>14.704710848261113</v>
+        <v>14.680554010161602</v>
       </c>
       <c r="E40" s="0">
-        <v>0.37280503756018629</v>
+        <v>0.37148609615907491</v>
       </c>
       <c r="F40" s="0">
-        <v>0.31921498403568027</v>
+        <v>0.32010400727082239</v>
       </c>
     </row>
     <row r="41">
@@ -895,16 +895,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C41" s="0">
-        <v>63.298719699999999</v>
+        <v>15.639280400000001</v>
       </c>
       <c r="D41" s="0">
-        <v>17.4603878405348</v>
+        <v>17.460706637108547</v>
       </c>
       <c r="E41" s="0">
-        <v>0.35108334581264783</v>
+        <v>0.35063384363292233</v>
       </c>
       <c r="F41" s="0">
-        <v>0.27048248204694142</v>
+        <v>0.27047255476145571</v>
       </c>
     </row>
     <row r="42">
@@ -915,16 +915,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C42" s="0">
-        <v>64.225923300000005</v>
+        <v>15.4474033</v>
       </c>
       <c r="D42" s="0">
-        <v>15.227105264624822</v>
+        <v>15.204140480334008</v>
       </c>
       <c r="E42" s="0">
-        <v>0.24470942128815393</v>
+        <v>0.2448549419136444</v>
       </c>
       <c r="F42" s="0">
-        <v>0.31633357517604271</v>
+        <v>0.31717104197631379</v>
       </c>
     </row>
     <row r="43">
@@ -935,16 +935,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C43" s="0">
-        <v>27.7650662</v>
+        <v>10.3385126</v>
       </c>
       <c r="D43" s="0">
-        <v>15.06069231008464</v>
+        <v>15.057644565322324</v>
       </c>
       <c r="E43" s="0">
-        <v>0.33163422255658209</v>
+        <v>0.33149965167088291</v>
       </c>
       <c r="F43" s="0">
-        <v>0.47974094502524028</v>
+        <v>0.47990930826291578</v>
       </c>
     </row>
     <row r="44">
@@ -955,16 +955,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>28.0768737</v>
+        <v>10.546884800000001</v>
       </c>
       <c r="D44" s="0">
-        <v>15.888133029069797</v>
+        <v>15.888103686545289</v>
       </c>
       <c r="E44" s="0">
-        <v>0.30980975601058852</v>
+        <v>0.30912152439084106</v>
       </c>
       <c r="F44" s="0">
-        <v>0.37377935915310262</v>
+        <v>0.37378062185030314</v>
       </c>
     </row>
     <row r="45">
@@ -975,16 +975,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C45" s="0">
-        <v>62.8131348</v>
+        <v>2302.3538548000001</v>
       </c>
       <c r="D45" s="0">
-        <v>14.420613361064344</v>
+        <v>14.41785315499722</v>
       </c>
       <c r="E45" s="0">
-        <v>0.40644104601886649</v>
+        <v>0.40571816650736714</v>
       </c>
       <c r="F45" s="0">
-        <v>0.46934530562072857</v>
+        <v>0.46949447809201444</v>
       </c>
     </row>
     <row r="46">
@@ -995,16 +995,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>63.554615300000002</v>
+        <v>17.047726699999998</v>
       </c>
       <c r="D46" s="0">
-        <v>15.810683574943384</v>
+        <v>15.844999199719648</v>
       </c>
       <c r="E46" s="0">
-        <v>0.22780584142618329</v>
+        <v>0.23044899918719086</v>
       </c>
       <c r="F46" s="0">
-        <v>0.3588487887423667</v>
+        <v>0.35743387006350713</v>
       </c>
     </row>
     <row r="47">
@@ -1015,16 +1015,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C47" s="0">
-        <v>63.146353699999999</v>
+        <v>14.5904287</v>
       </c>
       <c r="D47" s="0">
-        <v>14.875574217428136</v>
+        <v>14.919448838520964</v>
       </c>
       <c r="E47" s="0">
-        <v>0.31659368332741983</v>
+        <v>0.31806281676177556</v>
       </c>
       <c r="F47" s="0">
-        <v>0.45177193826513506</v>
+        <v>0.44949567798921608</v>
       </c>
     </row>
     <row r="48">
@@ -1035,16 +1035,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C48" s="0">
-        <v>64.198168699999997</v>
+        <v>15.1847201</v>
       </c>
       <c r="D48" s="0">
-        <v>15.363401562990003</v>
+        <v>15.366290417024565</v>
       </c>
       <c r="E48" s="0">
-        <v>0.35117969285374834</v>
+        <v>0.34967489036296534</v>
       </c>
       <c r="F48" s="0">
-        <v>0.29932919486014625</v>
+        <v>0.29922965703441196</v>
       </c>
     </row>
     <row r="49">
@@ -1055,16 +1055,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C49" s="0">
-        <v>29.755595799999998</v>
+        <v>10.752896099999999</v>
       </c>
       <c r="D49" s="0">
-        <v>16.864277608050497</v>
+        <v>16.87181815258613</v>
       </c>
       <c r="E49" s="0">
-        <v>0.19913698703519489</v>
+        <v>0.19917266978814624</v>
       </c>
       <c r="F49" s="0">
-        <v>0.31442339992229695</v>
+        <v>0.31415055569987865</v>
       </c>
     </row>
     <row r="50">
@@ -1075,16 +1075,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>63.528098499999999</v>
+        <v>14.9018269</v>
       </c>
       <c r="D50" s="0">
-        <v>15.389635011080497</v>
+        <v>15.38218735801615</v>
       </c>
       <c r="E50" s="0">
-        <v>0.45340407973667279</v>
+        <v>0.45382057443973556</v>
       </c>
       <c r="F50" s="0">
-        <v>0.33010398462388268</v>
+        <v>0.33038715127323176</v>
       </c>
     </row>
     <row r="51">
@@ -1095,16 +1095,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C51" s="0">
-        <v>62.953219199999999</v>
+        <v>15.0165165</v>
       </c>
       <c r="D51" s="0">
-        <v>16.424491537215168</v>
+        <v>16.443589241242194</v>
       </c>
       <c r="E51" s="0">
-        <v>0.40665975414855998</v>
+        <v>0.40712063531559983</v>
       </c>
       <c r="F51" s="0">
-        <v>0.33630456608282905</v>
+        <v>0.33556594404683365</v>
       </c>
     </row>
     <row r="52">
@@ -1115,16 +1115,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C52" s="0">
-        <v>64.688823499999998</v>
+        <v>15.0044586</v>
       </c>
       <c r="D52" s="0">
-        <v>14.484215848397366</v>
+        <v>14.500241618976347</v>
       </c>
       <c r="E52" s="0">
-        <v>0.32561785012007621</v>
+        <v>0.32512909405234924</v>
       </c>
       <c r="F52" s="0">
-        <v>0.32093237872699093</v>
+        <v>0.32034079316442499</v>
       </c>
     </row>
     <row r="53">
@@ -1135,16 +1135,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C53" s="0">
-        <v>64.246569800000003</v>
+        <v>14.9707677</v>
       </c>
       <c r="D53" s="0">
-        <v>15.095650962345026</v>
+        <v>15.118302827585888</v>
       </c>
       <c r="E53" s="0">
-        <v>0.41327385636886127</v>
+        <v>0.41374340384506869</v>
       </c>
       <c r="F53" s="0">
-        <v>0.26574622194858966</v>
+        <v>0.26505408730484264</v>
       </c>
     </row>
     <row r="54">
@@ -1155,16 +1155,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C54" s="0">
-        <v>63.804809400000003</v>
+        <v>15.3015256</v>
       </c>
       <c r="D54" s="0">
-        <v>16.055264546254516</v>
+        <v>16.091831182192806</v>
       </c>
       <c r="E54" s="0">
-        <v>0.45953650276266406</v>
+        <v>0.46158108563617339</v>
       </c>
       <c r="F54" s="0">
-        <v>0.35531270010660809</v>
+        <v>0.3538200171066424</v>
       </c>
     </row>
     <row r="55">
@@ -1175,16 +1175,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>62.993711400000002</v>
+        <v>15.2288637</v>
       </c>
       <c r="D55" s="0">
-        <v>14.426957604162499</v>
+        <v>14.41337645143525</v>
       </c>
       <c r="E55" s="0">
-        <v>0.291547099695805</v>
+        <v>0.28913840156377646</v>
       </c>
       <c r="F55" s="0">
-        <v>0.26224578950185673</v>
+        <v>0.26265615460632141</v>
       </c>
     </row>
     <row r="56">
@@ -1195,16 +1195,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C56" s="0">
-        <v>63.2467738</v>
+        <v>15.3013239</v>
       </c>
       <c r="D56" s="0">
-        <v>16.277247072694475</v>
+        <v>16.265089055750558</v>
       </c>
       <c r="E56" s="0">
-        <v>0.46402721726309853</v>
+        <v>0.46227689674464906</v>
       </c>
       <c r="F56" s="0">
-        <v>0.25139869442520774</v>
+        <v>0.25175083449110763</v>
       </c>
     </row>
     <row r="57">
@@ -1215,16 +1215,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>28.375417200000001</v>
+        <v>10.1468525</v>
       </c>
       <c r="D57" s="0">
-        <v>15.70738710715043</v>
+        <v>15.682658735602672</v>
       </c>
       <c r="E57" s="0">
-        <v>0.48342875115841938</v>
+        <v>0.48191464463361583</v>
       </c>
       <c r="F57" s="0">
-        <v>0.29636946862211344</v>
+        <v>0.29721442254756203</v>
       </c>
     </row>
     <row r="58">
@@ -1235,16 +1235,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C58" s="0">
-        <v>27.9417382</v>
+        <v>9.8890171999999996</v>
       </c>
       <c r="D58" s="0">
-        <v>15.127394643590389</v>
+        <v>15.12737745408141</v>
       </c>
       <c r="E58" s="0">
-        <v>0.32188807259364588</v>
+        <v>0.32115888030808448</v>
       </c>
       <c r="F58" s="0">
-        <v>0.45751182936391444</v>
+        <v>0.45751273478774651</v>
       </c>
     </row>
     <row r="59">
@@ -1255,16 +1255,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C59" s="0">
-        <v>64.893200100000001</v>
+        <v>14.9154012</v>
       </c>
       <c r="D59" s="0">
-        <v>15.702277079041711</v>
+        <v>15.678081976834973</v>
       </c>
       <c r="E59" s="0">
-        <v>0.62522647981009483</v>
+        <v>0.6233304479971159</v>
       </c>
       <c r="F59" s="0">
-        <v>0.29393022582265566</v>
+        <v>0.294750128718553</v>
       </c>
     </row>
     <row r="60">
@@ -1275,16 +1275,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C60" s="0">
-        <v>63.920737000000003</v>
+        <v>15.2096806</v>
       </c>
       <c r="D60" s="0">
-        <v>15.247789939055544</v>
+        <v>15.272339098553058</v>
       </c>
       <c r="E60" s="0">
-        <v>0.48863030910700078</v>
+        <v>0.48965654145584719</v>
       </c>
       <c r="F60" s="0">
-        <v>0.44329766844219715</v>
+        <v>0.44204653341405836</v>
       </c>
     </row>
     <row r="61">
@@ -1295,16 +1295,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C61" s="0">
-        <v>63.1657662</v>
+        <v>15.2248673</v>
       </c>
       <c r="D61" s="0">
-        <v>16.876142271449929</v>
+        <v>16.88741980951097</v>
       </c>
       <c r="E61" s="0">
-        <v>0.34557376771584924</v>
+        <v>0.34641277161482664</v>
       </c>
       <c r="F61" s="0">
-        <v>0.27244569576104183</v>
+        <v>0.27209218874498525</v>
       </c>
     </row>
     <row r="62">
@@ -1315,16 +1315,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>64.216195999999997</v>
+        <v>14.9583488</v>
       </c>
       <c r="D62" s="0">
-        <v>15.90595059881252</v>
+        <v>15.89348789035537</v>
       </c>
       <c r="E62" s="0">
-        <v>0.27064472998032579</v>
+        <v>0.27191914738381362</v>
       </c>
       <c r="F62" s="0">
-        <v>0.38318637383931686</v>
+        <v>0.38373657283170376</v>
       </c>
     </row>
     <row r="63">
@@ -1335,16 +1335,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>63.5238291</v>
+        <v>15.2009165</v>
       </c>
       <c r="D63" s="0">
-        <v>16.573302121399415</v>
+        <v>16.576196246846845</v>
       </c>
       <c r="E63" s="0">
-        <v>0.35595409147941987</v>
+        <v>0.35659654468821078</v>
       </c>
       <c r="F63" s="0">
-        <v>0.3697838692825916</v>
+        <v>0.36966067837459543</v>
       </c>
     </row>
     <row r="64">
@@ -1355,16 +1355,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C64" s="0">
-        <v>64.274301500000007</v>
+        <v>14.9750125</v>
       </c>
       <c r="D64" s="0">
-        <v>15.430672556787018</v>
+        <v>15.429547891211667</v>
       </c>
       <c r="E64" s="0">
-        <v>0.34896577839889686</v>
+        <v>0.34903481516512641</v>
       </c>
       <c r="F64" s="0">
-        <v>0.42560583188337797</v>
+        <v>0.42566094370706581</v>
       </c>
     </row>
     <row r="65">
@@ -1375,16 +1375,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C65" s="0">
-        <v>26.9517007</v>
+        <v>9.4455922000000001</v>
       </c>
       <c r="D65" s="0">
-        <v>13.407389746062883</v>
+        <v>13.409357702907645</v>
       </c>
       <c r="E65" s="0">
-        <v>0.22279865223947798</v>
+        <v>0.2225790689061693</v>
       </c>
       <c r="F65" s="0">
-        <v>0.62696715214948862</v>
+        <v>0.6268251166661013</v>
       </c>
     </row>
     <row r="66">
@@ -1395,16 +1395,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C66" s="0">
-        <v>63.334979400000002</v>
+        <v>15.199801000000001</v>
       </c>
       <c r="D66" s="0">
-        <v>15.32304831793622</v>
+        <v>15.353799840656171</v>
       </c>
       <c r="E66" s="0">
-        <v>0.40496127205904087</v>
+        <v>0.40573497108711537</v>
       </c>
       <c r="F66" s="0">
-        <v>0.43240595163526691</v>
+        <v>0.43087776843767689</v>
       </c>
     </row>
     <row r="67">
@@ -1415,16 +1415,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C67" s="0">
-        <v>28.218150399999999</v>
+        <v>10.1554015</v>
       </c>
       <c r="D67" s="0">
-        <v>15.765439073602838</v>
+        <v>15.753145050379722</v>
       </c>
       <c r="E67" s="0">
-        <v>0.34875271477531927</v>
+        <v>0.34952785124285279</v>
       </c>
       <c r="F67" s="0">
-        <v>0.35489647454436252</v>
+        <v>0.35539915128936544</v>
       </c>
     </row>
     <row r="68">
@@ -1435,16 +1435,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C68" s="0">
-        <v>63.052141900000002</v>
+        <v>14.9509531</v>
       </c>
       <c r="D68" s="0">
-        <v>14.09167630001444</v>
+        <v>14.111630458971284</v>
       </c>
       <c r="E68" s="0">
-        <v>0.25720289546580027</v>
+        <v>0.25704471768275428</v>
       </c>
       <c r="F68" s="0">
-        <v>0.52655734984172775</v>
+        <v>0.52534907414199306</v>
       </c>
     </row>
     <row r="69">
@@ -1455,16 +1455,16 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="C69" s="0">
-        <v>62.176720099999997</v>
+        <v>14.7070998</v>
       </c>
       <c r="D69" s="0">
-        <v>13.68987413444135</v>
+        <v>13.695867321990299</v>
       </c>
       <c r="E69" s="0">
-        <v>0.32076399901037012</v>
+        <v>0.3221343016394117</v>
       </c>
       <c r="F69" s="0">
-        <v>0.33035575552268992</v>
+        <v>0.3301278915744954</v>
       </c>
     </row>
     <row r="70">
@@ -1475,16 +1475,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C70" s="0">
-        <v>60.795609900000002</v>
+        <v>14.7212619</v>
       </c>
       <c r="D70" s="0">
-        <v>14.172480782187009</v>
+        <v>14.177930418147737</v>
       </c>
       <c r="E70" s="0">
-        <v>0.065755539041468358</v>
+        <v>0.065406793503054964</v>
       </c>
       <c r="F70" s="0">
-        <v>0.40380375139310576</v>
+        <v>0.40355047932266969</v>
       </c>
     </row>
     <row r="71">
@@ -1495,16 +1495,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C71" s="0">
-        <v>55.941855400000001</v>
+        <v>14.191379400000001</v>
       </c>
       <c r="D71" s="0">
-        <v>12.7987868893624</v>
+        <v>12.776270100209675</v>
       </c>
       <c r="E71" s="0">
-        <v>0.27747304520665295</v>
+        <v>0.27588963383220455</v>
       </c>
       <c r="F71" s="0">
-        <v>0.56757872331550574</v>
+        <v>0.5690519897766827</v>
       </c>
     </row>
     <row r="72">
@@ -1515,16 +1515,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C72" s="0">
-        <v>32.159757900000002</v>
+        <v>14.272850399999999</v>
       </c>
       <c r="D72" s="0">
-        <v>11.482322315888522</v>
+        <v>11.477750314588036</v>
       </c>
       <c r="E72" s="0">
-        <v>0.15690935929304414</v>
+        <v>0.15568076812331921</v>
       </c>
       <c r="F72" s="0">
-        <v>0.73610865453532903</v>
+        <v>0.73649622285242877</v>
       </c>
     </row>
     <row r="73">
@@ -1535,16 +1535,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C73" s="0">
-        <v>32.032986000000001</v>
+        <v>14.3435133</v>
       </c>
       <c r="D73" s="0">
-        <v>12.319887584352118</v>
+        <v>12.322124986545433</v>
       </c>
       <c r="E73" s="0">
-        <v>0.17986166787751556</v>
+        <v>0.17948224107448343</v>
       </c>
       <c r="F73" s="0">
-        <v>0.52616359228514797</v>
+        <v>0.52602807502501059</v>
       </c>
     </row>
     <row r="74">
@@ -1555,16 +1555,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C74" s="0">
-        <v>55.7753728</v>
+        <v>14.225120199999999</v>
       </c>
       <c r="D74" s="0">
-        <v>12.170811927797416</v>
+        <v>12.186094933277044</v>
       </c>
       <c r="E74" s="0">
-        <v>0.1602110451114746</v>
+        <v>0.16021704711344359</v>
       </c>
       <c r="F74" s="0">
-        <v>0.66542569920354899</v>
+        <v>0.66425589813870056</v>
       </c>
     </row>
     <row r="75">
@@ -1575,16 +1575,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C75" s="0">
-        <v>59.658279299999997</v>
+        <v>14.276498200000001</v>
       </c>
       <c r="D75" s="0">
-        <v>12.912050085069019</v>
+        <v>12.90622719523858</v>
       </c>
       <c r="E75" s="0">
-        <v>0.13945136736710514</v>
+        <v>0.13889969442246033</v>
       </c>
       <c r="F75" s="0">
-        <v>0.42970851332872656</v>
+        <v>0.42999668003638369</v>
       </c>
     </row>
     <row r="76">
@@ -1595,16 +1595,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C76" s="0">
-        <v>59.999522499999998</v>
+        <v>14.371257</v>
       </c>
       <c r="D76" s="0">
-        <v>11.398313106244801</v>
+        <v>11.432517582966932</v>
       </c>
       <c r="E76" s="0">
-        <v>0.16035496398806601</v>
+        <v>0.16166225661892278</v>
       </c>
       <c r="F76" s="0">
-        <v>0.46857366232833486</v>
+        <v>0.46673207767764668</v>
       </c>
     </row>
     <row r="77">
@@ -1615,16 +1615,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C77" s="0">
-        <v>25.999261499999999</v>
+        <v>8.8879271000000006</v>
       </c>
       <c r="D77" s="0">
-        <v>12.364374914381877</v>
+        <v>12.380119478037955</v>
       </c>
       <c r="E77" s="0">
-        <v>0.30697840058655523</v>
+        <v>0.30633214570983169</v>
       </c>
       <c r="F77" s="0">
-        <v>0.49107843766913828</v>
+        <v>0.4901890857777354</v>
       </c>
     </row>
     <row r="78">
@@ -1635,16 +1635,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C78" s="0">
-        <v>26.142696600000001</v>
+        <v>8.7158678999999992</v>
       </c>
       <c r="D78" s="0">
-        <v>11.916521370130921</v>
+        <v>11.922621224159517</v>
       </c>
       <c r="E78" s="0">
-        <v>0.1888684595290348</v>
+        <v>0.18890913198246889</v>
       </c>
       <c r="F78" s="0">
-        <v>0.59324690125240098</v>
+        <v>0.59283042702965227</v>
       </c>
     </row>
     <row r="79">
@@ -1655,16 +1655,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C79" s="0">
-        <v>25.747520000000002</v>
+        <v>8.7161156999999996</v>
       </c>
       <c r="D79" s="0">
-        <v>11.282356930380464</v>
+        <v>11.271136058679716</v>
       </c>
       <c r="E79" s="0">
-        <v>0.14126511104906933</v>
+        <v>0.1407139443198151</v>
       </c>
       <c r="F79" s="0">
-        <v>0.41515715059181446</v>
+        <v>0.41569381817653539</v>
       </c>
     </row>
     <row r="80">
@@ -1675,16 +1675,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C80" s="0">
-        <v>26.386116699999999</v>
+        <v>8.7475623999999996</v>
       </c>
       <c r="D80" s="0">
-        <v>12.107020929232506</v>
+        <v>12.118860369852015</v>
       </c>
       <c r="E80" s="0">
-        <v>0.22476907489256437</v>
+        <v>0.2261280035588063</v>
       </c>
       <c r="F80" s="0">
-        <v>0.47932306969856531</v>
+        <v>0.47867016580833605</v>
       </c>
     </row>
     <row r="81">
@@ -1695,16 +1695,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C81" s="0">
-        <v>71.468925499999997</v>
+        <v>14.260502199999999</v>
       </c>
       <c r="D81" s="0">
-        <v>12.854184838466626</v>
+        <v>12.85354154032361</v>
       </c>
       <c r="E81" s="0">
-        <v>0.11165218905116003</v>
+        <v>0.11118677607191457</v>
       </c>
       <c r="F81" s="0">
-        <v>0.59794010760810934</v>
+        <v>0.59798439414886029</v>
       </c>
     </row>
     <row r="82">
@@ -1715,16 +1715,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C82" s="0">
-        <v>55.593280800000002</v>
+        <v>14.283366300000001</v>
       </c>
       <c r="D82" s="0">
-        <v>11.431127278532697</v>
+        <v>11.435165255286893</v>
       </c>
       <c r="E82" s="0">
-        <v>0.16923236646706899</v>
+        <v>0.16838613654684662</v>
       </c>
       <c r="F82" s="0">
-        <v>0.36115255643425587</v>
+        <v>0.36098469951217682</v>
       </c>
     </row>
     <row r="83">
@@ -1735,16 +1735,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C83" s="0">
-        <v>55.035341699999996</v>
+        <v>14.247555699999999</v>
       </c>
       <c r="D83" s="0">
-        <v>11.622114430827708</v>
+        <v>11.61862161489303</v>
       </c>
       <c r="E83" s="0">
-        <v>0.10029346092067587</v>
+        <v>0.1005899975990389</v>
       </c>
       <c r="F83" s="0">
-        <v>0.3686566543451183</v>
+        <v>0.36880493032183276</v>
       </c>
     </row>
     <row r="84">
@@ -1755,16 +1755,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C84" s="0">
-        <v>32.602277399999998</v>
+        <v>14.447886499999999</v>
       </c>
       <c r="D84" s="0">
-        <v>12.209180142812873</v>
+        <v>12.213445969170865</v>
       </c>
       <c r="E84" s="0">
-        <v>0.16016482785317421</v>
+        <v>0.15932624451987459</v>
       </c>
       <c r="F84" s="0">
-        <v>0.72387058128585968</v>
+        <v>0.72351516023059059</v>
       </c>
     </row>
     <row r="85">
@@ -1775,16 +1775,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C85" s="0">
-        <v>31.8384593</v>
+        <v>14.2702299</v>
       </c>
       <c r="D85" s="0">
-        <v>11.756132347982586</v>
+        <v>11.729862653789311</v>
       </c>
       <c r="E85" s="0">
-        <v>0.17845752793397673</v>
+        <v>0.17590718703571784</v>
       </c>
       <c r="F85" s="0">
-        <v>0.80927626995365154</v>
+        <v>0.8117275584326098</v>
       </c>
     </row>
     <row r="86">
@@ -1795,16 +1795,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C86" s="0">
-        <v>55.669742800000002</v>
+        <v>14.2952391</v>
       </c>
       <c r="D86" s="0">
-        <v>11.374265432182384</v>
+        <v>11.369850675031795</v>
       </c>
       <c r="E86" s="0">
-        <v>0.11425869208709334</v>
+        <v>0.11524907636991995</v>
       </c>
       <c r="F86" s="0">
-        <v>0.86719472992162605</v>
+        <v>0.86763560902544834</v>
       </c>
     </row>
     <row r="87">
@@ -1815,16 +1815,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C87" s="0">
-        <v>57.713932900000003</v>
+        <v>15.034699099999999</v>
       </c>
       <c r="D87" s="0">
-        <v>13.247935745753125</v>
+        <v>13.257942248122351</v>
       </c>
       <c r="E87" s="0">
-        <v>0.11206058784097297</v>
+        <v>0.11233647146654993</v>
       </c>
       <c r="F87" s="0">
-        <v>0.53757362492470151</v>
+        <v>0.53695467457916302</v>
       </c>
     </row>
     <row r="88">
@@ -1835,16 +1835,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C88" s="0">
-        <v>32.590533200000003</v>
+        <v>14.3567722</v>
       </c>
       <c r="D88" s="0">
-        <v>11.619875499004426</v>
+        <v>11.636411467699128</v>
       </c>
       <c r="E88" s="0">
-        <v>0.17489454188696221</v>
+        <v>0.1762708272127495</v>
       </c>
       <c r="F88" s="0">
-        <v>0.52395581062557472</v>
+        <v>0.52295926620530331</v>
       </c>
     </row>
     <row r="89">
@@ -1855,16 +1855,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C89" s="0">
-        <v>73.196223099999997</v>
+        <v>14.811821200000001</v>
       </c>
       <c r="D89" s="0">
-        <v>13.415546136443099</v>
+        <v>13.426638090939855</v>
       </c>
       <c r="E89" s="0">
-        <v>0.10350999253780865</v>
+        <v>0.10450105577107337</v>
       </c>
       <c r="F89" s="0">
-        <v>0.42827992509944846</v>
+        <v>0.42773335707476562</v>
       </c>
     </row>
     <row r="90">
@@ -1875,16 +1875,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C90" s="0">
-        <v>57.606044900000001</v>
+        <v>19.507512899999998</v>
       </c>
       <c r="D90" s="0">
-        <v>12.649354430278464</v>
+        <v>12.647032646303369</v>
       </c>
       <c r="E90" s="0">
-        <v>0.21174069236184911</v>
+        <v>0.2109364432339795</v>
       </c>
       <c r="F90" s="0">
-        <v>0.5721084285331639</v>
+        <v>0.57226137656554443</v>
       </c>
     </row>
     <row r="91">
@@ -1895,16 +1895,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C91" s="0">
-        <v>32.377769800000003</v>
+        <v>14.191941699999999</v>
       </c>
       <c r="D91" s="0">
-        <v>12.025750273218495</v>
+        <v>12.001186032831409</v>
       </c>
       <c r="E91" s="0">
-        <v>0.16705711018998606</v>
+        <v>0.16621442613137788</v>
       </c>
       <c r="F91" s="0">
-        <v>0.60475981229895703</v>
+        <v>0.60647253165593096</v>
       </c>
     </row>
     <row r="92">
@@ -1915,16 +1915,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C92" s="0">
-        <v>59.113730500000003</v>
+        <v>14.5547322</v>
       </c>
       <c r="D92" s="0">
-        <v>12.429886850020598</v>
+        <v>12.390321685479421</v>
       </c>
       <c r="E92" s="0">
-        <v>0.21657598407270476</v>
+        <v>0.21456773901286394</v>
       </c>
       <c r="F92" s="0">
-        <v>0.53596691005512065</v>
+        <v>0.53841386600645125</v>
       </c>
     </row>
     <row r="93">
@@ -1935,16 +1935,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C93" s="0">
-        <v>58.964884499999997</v>
+        <v>14.5297167</v>
       </c>
       <c r="D93" s="0">
-        <v>12.554351079751697</v>
+        <v>12.541771219408492</v>
       </c>
       <c r="E93" s="0">
-        <v>0.29587814306246457</v>
+        <v>0.29738463844110702</v>
       </c>
       <c r="F93" s="0">
-        <v>0.52118398484602757</v>
+        <v>0.52193936767660076</v>
       </c>
     </row>
     <row r="94">
@@ -1955,16 +1955,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C94" s="0">
-        <v>73.3064301</v>
+        <v>14.7390416</v>
       </c>
       <c r="D94" s="0">
-        <v>12.057986055518191</v>
+        <v>12.036286038015533</v>
       </c>
       <c r="E94" s="0">
-        <v>0.2373262680764216</v>
+        <v>0.2360544384376263</v>
       </c>
       <c r="F94" s="0">
-        <v>0.49660231064613963</v>
+        <v>0.49784452666834872</v>
       </c>
     </row>
     <row r="95">
@@ -1975,16 +1975,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C95" s="0">
-        <v>31.7652219</v>
+        <v>14.319070099999999</v>
       </c>
       <c r="D95" s="0">
-        <v>11.2579202824025</v>
+        <v>11.248498663265242</v>
       </c>
       <c r="E95" s="0">
-        <v>0.34371826419962059</v>
+        <v>0.34302502947276453</v>
       </c>
       <c r="F95" s="0">
-        <v>0.51780864050179931</v>
+        <v>0.51837061433214815</v>
       </c>
     </row>
     <row r="96">
@@ -1995,16 +1995,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C96" s="0">
-        <v>25.014829200000001</v>
+        <v>8.8258797999999992</v>
       </c>
       <c r="D96" s="0">
-        <v>11.342815386146759</v>
+        <v>11.356235964850303</v>
       </c>
       <c r="E96" s="0">
-        <v>0.27729219665456234</v>
+        <v>0.27841631518730203</v>
       </c>
       <c r="F96" s="0">
-        <v>0.53859213704540276</v>
+        <v>0.53776060024539185</v>
       </c>
     </row>
     <row r="97">
@@ -2015,16 +2015,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C97" s="0">
-        <v>31.230043899999998</v>
+        <v>14.4022813</v>
       </c>
       <c r="D97" s="0">
-        <v>11.458723594007751</v>
+        <v>11.466525457090009</v>
       </c>
       <c r="E97" s="0">
-        <v>0.28858024194852155</v>
+        <v>0.28933583143526503</v>
       </c>
       <c r="F97" s="0">
-        <v>0.62671227546428343</v>
+        <v>0.62614960102496442</v>
       </c>
     </row>
     <row r="98">
@@ -2035,16 +2035,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C98" s="0">
-        <v>57.144710400000001</v>
+        <v>16.109579100000001</v>
       </c>
       <c r="D98" s="0">
-        <v>12.278512005036621</v>
+        <v>12.261316187659583</v>
       </c>
       <c r="E98" s="0">
-        <v>0.17572377490422991</v>
+        <v>0.17497911567065139</v>
       </c>
       <c r="F98" s="0">
-        <v>0.38698672996119216</v>
+        <v>0.38775362257788232</v>
       </c>
     </row>
     <row r="99">
@@ -2055,16 +2055,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C99" s="0">
-        <v>31.657422199999999</v>
+        <v>14.486886999999999</v>
       </c>
       <c r="D99" s="0">
-        <v>11.063527128664054</v>
+        <v>11.08150080502304</v>
       </c>
       <c r="E99" s="0">
-        <v>0.20481731770372019</v>
+        <v>0.2057569390547444</v>
       </c>
       <c r="F99" s="0">
-        <v>0.66203871575260675</v>
+        <v>0.66067017815406748</v>
       </c>
     </row>
     <row r="100">
@@ -2075,16 +2075,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C100" s="0">
-        <v>54.936848900000001</v>
+        <v>14.376730999999999</v>
       </c>
       <c r="D100" s="0">
-        <v>11.930748940856031</v>
+        <v>11.895611730175089</v>
       </c>
       <c r="E100" s="0">
-        <v>0.21452513779780771</v>
+        <v>0.21318357205041533</v>
       </c>
       <c r="F100" s="0">
-        <v>0.67722895334730304</v>
+        <v>0.67997411054746726</v>
       </c>
     </row>
     <row r="101">
@@ -2095,16 +2095,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C101" s="0">
-        <v>32.306728700000001</v>
+        <v>14.7160612</v>
       </c>
       <c r="D101" s="0">
-        <v>12.122108205427264</v>
+        <v>12.13587482644007</v>
       </c>
       <c r="E101" s="0">
-        <v>0.19400579324580922</v>
+        <v>0.19396285252338355</v>
       </c>
       <c r="F101" s="0">
-        <v>0.74900479494375893</v>
+        <v>0.74781860693989077</v>
       </c>
     </row>
     <row r="102">
@@ -2115,16 +2115,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C102" s="0">
-        <v>30.717317999999999</v>
+        <v>10.5844954</v>
       </c>
       <c r="D102" s="0">
-        <v>9.3572935052936064</v>
+        <v>9.3552750033482912</v>
       </c>
       <c r="E102" s="0">
-        <v>0.036088251670245826</v>
+        <v>0.036369883297315608</v>
       </c>
       <c r="F102" s="0">
-        <v>0.56184079434757039</v>
+        <v>0.56197137492907401</v>
       </c>
     </row>
     <row r="103">
@@ -2135,16 +2135,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C103" s="0">
-        <v>25.882104500000001</v>
+        <v>9.0043989999999994</v>
       </c>
       <c r="D103" s="0">
-        <v>11.928697290682905</v>
+        <v>11.911338982626258</v>
       </c>
       <c r="E103" s="0">
-        <v>0.34030335963108577</v>
+        <v>0.33774936647173337</v>
       </c>
       <c r="F103" s="0">
-        <v>0.49939939858355897</v>
+        <v>0.50039842076146801</v>
       </c>
     </row>
     <row r="104">
@@ -2155,16 +2155,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C104" s="0">
-        <v>62.149917500000001</v>
+        <v>14.494174599999999</v>
       </c>
       <c r="D104" s="0">
-        <v>13.16182885659693</v>
+        <v>13.162536671185176</v>
       </c>
       <c r="E104" s="0">
-        <v>0.2811741038668587</v>
+        <v>0.28090400609426236</v>
       </c>
       <c r="F104" s="0">
-        <v>0.48815866696671378</v>
+        <v>0.48811888845672169</v>
       </c>
     </row>
     <row r="105">
@@ -2175,16 +2175,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C105" s="0">
-        <v>25.9341689</v>
+        <v>9.0001528999999998</v>
       </c>
       <c r="D105" s="0">
-        <v>12.672674178860957</v>
+        <v>12.680335970017865</v>
       </c>
       <c r="E105" s="0">
-        <v>0.32505315489593567</v>
+        <v>0.32491657420983028</v>
       </c>
       <c r="F105" s="0">
-        <v>0.57361943366786805</v>
+        <v>0.57311366918413853</v>
       </c>
     </row>
     <row r="106">
@@ -2195,16 +2195,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C106" s="0">
-        <v>72.030963600000007</v>
+        <v>14.4105031</v>
       </c>
       <c r="D106" s="0">
-        <v>13.227108235389938</v>
+        <v>13.23855171975238</v>
       </c>
       <c r="E106" s="0">
-        <v>0.24316501878997615</v>
+        <v>0.24424350703378303</v>
       </c>
       <c r="F106" s="0">
-        <v>0.50833533601144809</v>
+        <v>0.50766605544042809</v>
       </c>
     </row>
     <row r="107">
@@ -2215,16 +2215,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C107" s="0">
-        <v>72.104624599999994</v>
+        <v>14.678263400000001</v>
       </c>
       <c r="D107" s="0">
-        <v>12.822946496882917</v>
+        <v>12.814290495621925</v>
       </c>
       <c r="E107" s="0">
-        <v>0.21938988866363696</v>
+        <v>0.21947503963095619</v>
       </c>
       <c r="F107" s="0">
-        <v>0.42595039305542276</v>
+        <v>0.42637508932414614</v>
       </c>
     </row>
     <row r="108">
@@ -2235,16 +2235,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C108" s="0">
-        <v>26.0738542</v>
+        <v>9.0835194000000001</v>
       </c>
       <c r="D108" s="0">
-        <v>11.697222324042</v>
+        <v>11.675943864660113</v>
       </c>
       <c r="E108" s="0">
-        <v>0.20574838199631137</v>
+        <v>0.20456384656866866</v>
       </c>
       <c r="F108" s="0">
-        <v>0.45129206272701777</v>
+        <v>0.45239898120955957</v>
       </c>
     </row>
     <row r="109">
@@ -2255,16 +2255,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C109" s="0">
-        <v>60.5696218</v>
+        <v>14.851580500000001</v>
       </c>
       <c r="D109" s="0">
-        <v>14.39885489535741</v>
+        <v>14.384093581409276</v>
       </c>
       <c r="E109" s="0">
-        <v>0.17139852271198705</v>
+        <v>0.17034739935495391</v>
       </c>
       <c r="F109" s="0">
-        <v>0.384782923756257</v>
+        <v>0.38543740255942704</v>
       </c>
     </row>
     <row r="110">
@@ -2275,16 +2275,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C110" s="0">
-        <v>56.900765999999997</v>
+        <v>14.6274023</v>
       </c>
       <c r="D110" s="0">
-        <v>12.209841850183372</v>
+        <v>12.196050976561825</v>
       </c>
       <c r="E110" s="0">
-        <v>0.125977247127879</v>
+        <v>0.12406181671019174</v>
       </c>
       <c r="F110" s="0">
-        <v>0.44772202612808709</v>
+        <v>0.44843345379339145</v>
       </c>
     </row>
     <row r="111">
@@ -2295,16 +2295,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C111" s="0">
-        <v>25.611826799999999</v>
+        <v>8.8125578000000004</v>
       </c>
       <c r="D111" s="0">
-        <v>12.028648990194664</v>
+        <v>12.042080594818492</v>
       </c>
       <c r="E111" s="0">
-        <v>0.17863689198133106</v>
+        <v>0.17928298175569987</v>
       </c>
       <c r="F111" s="0">
-        <v>0.68015665581290718</v>
+        <v>0.67910569433458534</v>
       </c>
     </row>
     <row r="112">
@@ -2315,16 +2315,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C112" s="0">
-        <v>25.945338700000001</v>
+        <v>9.5869546000000003</v>
       </c>
       <c r="D112" s="0">
-        <v>12.889812095925029</v>
+        <v>12.894918828810409</v>
       </c>
       <c r="E112" s="0">
-        <v>0.16548119391706426</v>
+        <v>0.16499530011396821</v>
       </c>
       <c r="F112" s="0">
-        <v>0.52787532491625677</v>
+        <v>0.5275650600964138</v>
       </c>
     </row>
     <row r="113">
@@ -2335,16 +2335,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C113" s="0">
-        <v>31.879935199999998</v>
+        <v>14.979991999999999</v>
       </c>
       <c r="D113" s="0">
-        <v>11.398186834038363</v>
+        <v>11.399581963418433</v>
       </c>
       <c r="E113" s="0">
-        <v>0.2383906859026903</v>
+        <v>0.23871738877901494</v>
       </c>
       <c r="F113" s="0">
-        <v>0.66468182675357279</v>
+        <v>0.66457507399541016</v>
       </c>
     </row>
     <row r="114">
@@ -2355,16 +2355,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C114" s="0">
-        <v>58.855764499999999</v>
+        <v>14.9381515</v>
       </c>
       <c r="D114" s="0">
-        <v>12.773949290193972</v>
+        <v>12.778405980408989</v>
       </c>
       <c r="E114" s="0">
-        <v>0.12197510974070713</v>
+        <v>0.11981688482108219</v>
       </c>
       <c r="F114" s="0">
-        <v>0.5090356499313512</v>
+        <v>0.50877453306406517</v>
       </c>
     </row>
     <row r="115">
@@ -2375,16 +2375,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C115" s="0">
-        <v>57.970254599999997</v>
+        <v>15.252333500000001</v>
       </c>
       <c r="D115" s="0">
-        <v>11.880471993072151</v>
+        <v>11.879576529773139</v>
       </c>
       <c r="E115" s="0">
-        <v>0.18368376993929067</v>
+        <v>0.18368304605263958</v>
       </c>
       <c r="F115" s="0">
-        <v>0.63778509048427046</v>
+        <v>0.63785084570396411</v>
       </c>
     </row>
     <row r="116">
@@ -2395,16 +2395,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C116" s="0">
-        <v>32.430739000000003</v>
+        <v>15.0789794</v>
       </c>
       <c r="D116" s="0">
-        <v>12.371571105494395</v>
+        <v>12.367428500946236</v>
       </c>
       <c r="E116" s="0">
-        <v>0.19722464432720355</v>
+        <v>0.19620869546364286</v>
       </c>
       <c r="F116" s="0">
-        <v>0.42241623404026585</v>
+        <v>0.4226177471663477</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C117" s="0">
-        <v>26.248511100000002</v>
+        <v>10.5096901</v>
       </c>
       <c r="D117" s="0">
-        <v>13.845468357975264</v>
+        <v>13.845008284512721</v>
       </c>
       <c r="E117" s="0">
-        <v>0.091880927416897462</v>
+        <v>0.091464447788242351</v>
       </c>
       <c r="F117" s="0">
-        <v>0.44509767119314408</v>
+        <v>0.44512124771307543</v>
       </c>
     </row>
     <row r="118">
@@ -2435,16 +2435,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C118" s="0">
-        <v>69.031595600000003</v>
+        <v>15.2037727</v>
       </c>
       <c r="D118" s="0">
-        <v>12.374816746502891</v>
+        <v>12.342741882733314</v>
       </c>
       <c r="E118" s="0">
-        <v>0.26700975787327913</v>
+        <v>0.26524655440143496</v>
       </c>
       <c r="F118" s="0">
-        <v>0.46708043916931247</v>
+        <v>0.46880844145164247</v>
       </c>
     </row>
     <row r="119">
@@ -2455,16 +2455,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C119" s="0">
-        <v>58.798328400000003</v>
+        <v>15.0153962</v>
       </c>
       <c r="D119" s="0">
-        <v>13.41804659374716</v>
+        <v>13.431145377862993</v>
       </c>
       <c r="E119" s="0">
-        <v>0.22194099819987778</v>
+        <v>0.22180164184072909</v>
       </c>
       <c r="F119" s="0">
-        <v>0.47539543933108697</v>
+        <v>0.47467905799914861</v>
       </c>
     </row>
     <row r="120">
@@ -2475,16 +2475,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C120" s="0">
-        <v>32.625311600000003</v>
+        <v>15.0008888</v>
       </c>
       <c r="D120" s="0">
-        <v>11.461770612259919</v>
+        <v>11.469286333283382</v>
       </c>
       <c r="E120" s="0">
-        <v>0.17542535904502363</v>
+        <v>0.17526304670514053</v>
       </c>
       <c r="F120" s="0">
-        <v>0.45450199817074355</v>
+        <v>0.45410889706849716</v>
       </c>
     </row>
     <row r="121">
@@ -2495,16 +2495,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C121" s="0">
-        <v>55.4849739</v>
+        <v>15.085222399999999</v>
       </c>
       <c r="D121" s="0">
-        <v>12.052902757503043</v>
+        <v>12.027954746233398</v>
       </c>
       <c r="E121" s="0">
-        <v>0.23250260387603094</v>
+        <v>0.23123466776798687</v>
       </c>
       <c r="F121" s="0">
-        <v>0.37722851087553261</v>
+        <v>0.37831356145538608</v>
       </c>
     </row>
     <row r="122">
@@ -2515,16 +2515,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C122" s="0">
-        <v>56.7773751</v>
+        <v>15.009697900000001</v>
       </c>
       <c r="D122" s="0">
-        <v>13.032109764199756</v>
+        <v>13.036926723309003</v>
       </c>
       <c r="E122" s="0">
-        <v>0.26676374030221878</v>
+        <v>0.26609779169697212</v>
       </c>
       <c r="F122" s="0">
-        <v>0.50323225539489325</v>
+        <v>0.50295325378816136</v>
       </c>
     </row>
     <row r="123">
@@ -2535,16 +2535,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C123" s="0">
-        <v>72.450746100000003</v>
+        <v>15.058662200000001</v>
       </c>
       <c r="D123" s="0">
-        <v>11.36903200653051</v>
+        <v>11.365083890176425</v>
       </c>
       <c r="E123" s="0">
-        <v>0.15525850516571374</v>
+        <v>0.15384724106320075</v>
       </c>
       <c r="F123" s="0">
-        <v>0.37291066490929453</v>
+        <v>0.37308020762949251</v>
       </c>
     </row>
     <row r="124">
@@ -2555,16 +2555,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C124" s="0">
-        <v>56.865464000000003</v>
+        <v>15.165514399999999</v>
       </c>
       <c r="D124" s="0">
-        <v>13.234449479122141</v>
+        <v>13.224080988637823</v>
       </c>
       <c r="E124" s="0">
-        <v>0.2739508029613375</v>
+        <v>0.27265540910835312</v>
       </c>
       <c r="F124" s="0">
-        <v>0.35686413029303482</v>
+        <v>0.35729037928226504</v>
       </c>
     </row>
     <row r="125">
@@ -2575,16 +2575,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C125" s="0">
-        <v>25.9987858</v>
+        <v>9.6033909000000008</v>
       </c>
       <c r="D125" s="0">
-        <v>12.684797321895351</v>
+        <v>12.70347977263264</v>
       </c>
       <c r="E125" s="0">
-        <v>0.28435907364740315</v>
+        <v>0.28634080621817681</v>
       </c>
       <c r="F125" s="0">
-        <v>0.41972317627125061</v>
+        <v>0.41882136530529901</v>
       </c>
     </row>
     <row r="126">
@@ -2595,16 +2595,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C126" s="0">
-        <v>25.592855199999999</v>
+        <v>9.1989113000000007</v>
       </c>
       <c r="D126" s="0">
-        <v>12.110852749567105</v>
+        <v>12.124871319223178</v>
       </c>
       <c r="E126" s="0">
-        <v>0.18307606638182242</v>
+        <v>0.18413286367487336</v>
       </c>
       <c r="F126" s="0">
-        <v>0.647484568458358</v>
+        <v>0.64644040521247359</v>
       </c>
     </row>
     <row r="127">
@@ -2615,16 +2615,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C127" s="0">
-        <v>32.566014799999998</v>
+        <v>15.407207400000001</v>
       </c>
       <c r="D127" s="0">
-        <v>12.686352004326036</v>
+        <v>12.667511546594955</v>
       </c>
       <c r="E127" s="0">
-        <v>0.40465545476442849</v>
+        <v>0.4041773813240746</v>
       </c>
       <c r="F127" s="0">
-        <v>0.41594939988432045</v>
+        <v>0.41685260989305434</v>
       </c>
     </row>
     <row r="128">
@@ -2635,16 +2635,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C128" s="0">
-        <v>32.133402199999999</v>
+        <v>14.955365799999999</v>
       </c>
       <c r="D128" s="0">
-        <v>12.229431111157593</v>
+        <v>12.228925048214832</v>
       </c>
       <c r="E128" s="0">
-        <v>0.29330956551984022</v>
+        <v>0.29222129959850346</v>
       </c>
       <c r="F128" s="0">
-        <v>0.62749950634850604</v>
+        <v>0.6275360671973027</v>
       </c>
     </row>
     <row r="129">
@@ -2655,16 +2655,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C129" s="0">
-        <v>58.792430199999998</v>
+        <v>15.5168091</v>
       </c>
       <c r="D129" s="0">
-        <v>13.833326832377377</v>
+        <v>13.831272226587854</v>
       </c>
       <c r="E129" s="0">
-        <v>0.17755021086497536</v>
+        <v>0.17582335136874092</v>
       </c>
       <c r="F129" s="0">
-        <v>0.38674145164980372</v>
+        <v>0.3868329443173022</v>
       </c>
     </row>
     <row r="130">
@@ -2675,16 +2675,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C130" s="0">
-        <v>58.116102400000003</v>
+        <v>15.076532200000001</v>
       </c>
       <c r="D130" s="0">
-        <v>12.878568487478796</v>
+        <v>12.868704935421995</v>
       </c>
       <c r="E130" s="0">
-        <v>0.13696756098566931</v>
+        <v>0.13797987397816922</v>
       </c>
       <c r="F130" s="0">
-        <v>0.54297416069668825</v>
+        <v>0.54359110336693106</v>
       </c>
     </row>
     <row r="131">
@@ -2695,16 +2695,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C131" s="0">
-        <v>73.716009799999995</v>
+        <v>15.1588885</v>
       </c>
       <c r="D131" s="0">
-        <v>13.532339529271745</v>
+        <v>13.518973457517085</v>
       </c>
       <c r="E131" s="0">
-        <v>0.19235522996879056</v>
+        <v>0.19204739756792674</v>
       </c>
       <c r="F131" s="0">
-        <v>0.52480273784102127</v>
+        <v>0.52561093955660187</v>
       </c>
     </row>
     <row r="132">
@@ -2715,16 +2715,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C132" s="0">
-        <v>57.489545399999997</v>
+        <v>15.3662668</v>
       </c>
       <c r="D132" s="0">
-        <v>12.427754123618758</v>
+        <v>12.434854387577257</v>
       </c>
       <c r="E132" s="0">
-        <v>0.18692095713119658</v>
+        <v>0.18914616090398878</v>
       </c>
       <c r="F132" s="0">
-        <v>0.60138624679908037</v>
+        <v>0.60089484563069595</v>
       </c>
     </row>
     <row r="133">
@@ -2735,16 +2735,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C133" s="0">
-        <v>25.051610700000001</v>
+        <v>9.1965161000000002</v>
       </c>
       <c r="D133" s="0">
-        <v>10.413668418506381</v>
+        <v>10.41187350449858</v>
       </c>
       <c r="E133" s="0">
-        <v>0.1324272233015622</v>
+        <v>0.1327962038150749</v>
       </c>
       <c r="F133" s="0">
-        <v>0.88497469857174726</v>
+        <v>0.88515759493414459</v>
       </c>
     </row>
     <row r="134">
@@ -2755,16 +2755,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C134" s="0">
-        <v>31.809554800000001</v>
+        <v>15.9883746</v>
       </c>
       <c r="D134" s="0">
-        <v>12.337705645416463</v>
+        <v>12.305348518937482</v>
       </c>
       <c r="E134" s="0">
-        <v>0.23190197497577825</v>
+        <v>0.23073235068574094</v>
       </c>
       <c r="F134" s="0">
-        <v>0.60975981066637597</v>
+        <v>0.61203555576164936</v>
       </c>
     </row>
     <row r="135">
@@ -2775,16 +2775,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C135" s="0">
-        <v>26.277669700000001</v>
+        <v>10.8321901</v>
       </c>
       <c r="D135" s="0">
-        <v>12.760814311814501</v>
+        <v>12.761080576495267</v>
       </c>
       <c r="E135" s="0">
-        <v>0.18821462544528195</v>
+        <v>0.18903185663727648</v>
       </c>
       <c r="F135" s="0">
-        <v>0.50157158313447892</v>
+        <v>0.50155620776637533</v>
       </c>
     </row>
     <row r="136">
@@ -2795,16 +2795,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C136" s="0">
-        <v>31.072006399999999</v>
+        <v>17.0093651</v>
       </c>
       <c r="D136" s="0">
-        <v>11.096046624711583</v>
+        <v>11.096367328754859</v>
       </c>
       <c r="E136" s="0">
-        <v>0.13453259587073135</v>
+        <v>0.13443775587314574</v>
       </c>
       <c r="F136" s="0">
-        <v>0.74340788460015284</v>
+        <v>0.74338043669061493</v>
       </c>
     </row>
     <row r="137">
@@ -2815,16 +2815,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C137" s="0">
-        <v>30.810062599999998</v>
+        <v>15.369446</v>
       </c>
       <c r="D137" s="0">
-        <v>10.663041807404083</v>
+        <v>10.664163177044134</v>
       </c>
       <c r="E137" s="0">
-        <v>0.18201963928557799</v>
+        <v>0.18211371457600298</v>
       </c>
       <c r="F137" s="0">
-        <v>0.46808367402349099</v>
+        <v>0.46802324717468452</v>
       </c>
     </row>
     <row r="138">
@@ -2835,16 +2835,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C138" s="0">
-        <v>31.685936300000002</v>
+        <v>15.2903664</v>
       </c>
       <c r="D138" s="0">
-        <v>12.403356697188656</v>
+        <v>12.417309043648899</v>
       </c>
       <c r="E138" s="0">
-        <v>0.035857742602003813</v>
+        <v>0.036718503568592985</v>
       </c>
       <c r="F138" s="0">
-        <v>0.49502434013510549</v>
+        <v>0.49422980933642224</v>
       </c>
     </row>
     <row r="139">
@@ -2855,16 +2855,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C139" s="0">
-        <v>31.0766624</v>
+        <v>11.7935438</v>
       </c>
       <c r="D139" s="0">
-        <v>11.018020751246368</v>
+        <v>11.03340968236264</v>
       </c>
       <c r="E139" s="0">
-        <v>0.15615051140239827</v>
+        <v>0.15776614923028381</v>
       </c>
       <c r="F139" s="0">
-        <v>0.6967298440513876</v>
+        <v>0.69549652938544826</v>
       </c>
     </row>
     <row r="140">
@@ -2875,16 +2875,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C140" s="0">
-        <v>30.827991699999998</v>
+        <v>15.2323866</v>
       </c>
       <c r="D140" s="0">
-        <v>9.712882889809304</v>
+        <v>9.7027399405644612</v>
       </c>
       <c r="E140" s="0">
-        <v>0.086096761827161389</v>
+        <v>0.086511962992909197</v>
       </c>
       <c r="F140" s="0">
-        <v>0.9024307703848361</v>
+        <v>0.90348519962040885</v>
       </c>
     </row>
     <row r="141">
@@ -2895,16 +2895,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C141" s="0">
-        <v>30.894512299999999</v>
+        <v>15.0146964</v>
       </c>
       <c r="D141" s="0">
-        <v>10.549790014572871</v>
+        <v>10.542474577953795</v>
       </c>
       <c r="E141" s="0">
-        <v>0.099909563179359215</v>
+        <v>0.099654520122291326</v>
       </c>
       <c r="F141" s="0">
-        <v>0.64509796578370726</v>
+        <v>0.64564150954599353</v>
       </c>
     </row>
     <row r="142">
@@ -2915,16 +2915,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C142" s="0">
-        <v>31.6129672</v>
+        <v>11.4058753</v>
       </c>
       <c r="D142" s="0">
-        <v>10.417336089528801</v>
+        <v>10.428448052076572</v>
       </c>
       <c r="E142" s="0">
-        <v>0.089654770357018784</v>
+        <v>0.091232617992926479</v>
       </c>
       <c r="F142" s="0">
-        <v>0.81427923794283663</v>
+        <v>0.81323818682677707</v>
       </c>
     </row>
     <row r="143">
@@ -2935,16 +2935,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C143" s="0">
-        <v>31.460289800000002</v>
+        <v>15.168778</v>
       </c>
       <c r="D143" s="0">
-        <v>11.134620288987652</v>
+        <v>11.132890118444212</v>
       </c>
       <c r="E143" s="0">
-        <v>0.079212408164677076</v>
+        <v>0.078576930803226183</v>
       </c>
       <c r="F143" s="0">
-        <v>0.52728503750777889</v>
+        <v>0.52739007958697415</v>
       </c>
     </row>
     <row r="144">
@@ -2955,16 +2955,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C144" s="0">
-        <v>31.821754599999998</v>
+        <v>11.143130599999999</v>
       </c>
       <c r="D144" s="0">
-        <v>9.6567520153860276</v>
+        <v>9.6543129185948668</v>
       </c>
       <c r="E144" s="0">
-        <v>0.095052765439939901</v>
+        <v>0.095333439874104378</v>
       </c>
       <c r="F144" s="0">
-        <v>0.57260604504404378</v>
+        <v>0.57276686192522352</v>
       </c>
     </row>
     <row r="145">
@@ -2975,16 +2975,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C145" s="0">
-        <v>25.153526599999999</v>
+        <v>9.1326637000000002</v>
       </c>
       <c r="D145" s="0">
-        <v>10.611726742020828</v>
+        <v>10.615723711767327</v>
       </c>
       <c r="E145" s="0">
-        <v>0.17815447808403045</v>
+        <v>0.17784108940604476</v>
       </c>
       <c r="F145" s="0">
-        <v>0.60087380871981866</v>
+        <v>0.60059736934139019</v>
       </c>
     </row>
     <row r="146">
@@ -2995,16 +2995,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C146" s="0">
-        <v>24.692941699999999</v>
+        <v>9.1678992000000008</v>
       </c>
       <c r="D146" s="0">
-        <v>10.146160999913443</v>
+        <v>10.135820410039603</v>
       </c>
       <c r="E146" s="0">
-        <v>0.10660442171695909</v>
+        <v>0.10599659102387914</v>
       </c>
       <c r="F146" s="0">
-        <v>0.72736683807488944</v>
+        <v>0.72823328715291924</v>
       </c>
     </row>
     <row r="147">
@@ -3015,16 +3015,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C147" s="0">
-        <v>24.605832400000001</v>
+        <v>13.8404417</v>
       </c>
       <c r="D147" s="0">
-        <v>9.502492618669331</v>
+        <v>9.5249063542048447</v>
       </c>
       <c r="E147" s="0">
-        <v>0.082727446351083908</v>
+        <v>0.083765042787709049</v>
       </c>
       <c r="F147" s="0">
-        <v>0.50957221329021019</v>
+        <v>0.50825896921068869</v>
       </c>
     </row>
     <row r="148">
@@ -3035,16 +3035,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C148" s="0">
-        <v>24.7764305</v>
+        <v>9.5808025000000008</v>
       </c>
       <c r="D148" s="0">
-        <v>10.344609136501106</v>
+        <v>10.334513778382545</v>
       </c>
       <c r="E148" s="0">
-        <v>0.13637409793683261</v>
+        <v>0.13575536867395249</v>
       </c>
       <c r="F148" s="0">
-        <v>0.58714980585524534</v>
+        <v>0.58783262981629514</v>
       </c>
     </row>
     <row r="149">
@@ -3055,16 +3055,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C149" s="0">
-        <v>30.946390699999998</v>
+        <v>11.722841799999999</v>
       </c>
       <c r="D149" s="0">
-        <v>11.118423104060213</v>
+        <v>11.129611104934362</v>
       </c>
       <c r="E149" s="0">
-        <v>0.060399504310017234</v>
+        <v>0.060359344344039646</v>
       </c>
       <c r="F149" s="0">
-        <v>0.73020663020484078</v>
+        <v>0.72926668121246618</v>
       </c>
     </row>
     <row r="150">
@@ -3075,16 +3075,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C150" s="0">
-        <v>30.612994700000002</v>
+        <v>11.4755693</v>
       </c>
       <c r="D150" s="0">
-        <v>9.6880162060277275</v>
+        <v>9.6912018268470685</v>
       </c>
       <c r="E150" s="0">
-        <v>0.095182514538399168</v>
+        <v>0.094228994706452643</v>
       </c>
       <c r="F150" s="0">
-        <v>0.44141414612223928</v>
+        <v>0.44125228357041113</v>
       </c>
     </row>
     <row r="151">
@@ -3095,16 +3095,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C151" s="0">
-        <v>30.906721000000001</v>
+        <v>15.299442600000001</v>
       </c>
       <c r="D151" s="0">
-        <v>9.8705634674042599</v>
+        <v>9.8608440035077081</v>
       </c>
       <c r="E151" s="0">
-        <v>0.055306034201262261</v>
+        <v>0.054758312229729461</v>
       </c>
       <c r="F151" s="0">
-        <v>0.45102397230036051</v>
+        <v>0.45152894818513295</v>
       </c>
     </row>
     <row r="152">
@@ -3115,16 +3115,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C152" s="0">
-        <v>30.847657600000002</v>
+        <v>11.462680300000001</v>
       </c>
       <c r="D152" s="0">
-        <v>10.453332012620187</v>
+        <v>10.454224548199493</v>
       </c>
       <c r="E152" s="0">
-        <v>0.090419855239707025</v>
+        <v>0.09014964040217191</v>
       </c>
       <c r="F152" s="0">
-        <v>0.88604001016410261</v>
+        <v>0.88594896806745693</v>
       </c>
     </row>
     <row r="153">
@@ -3135,16 +3135,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C153" s="0">
-        <v>30.789623800000001</v>
+        <v>11.763793400000001</v>
       </c>
       <c r="D153" s="0">
-        <v>9.9869881171292221</v>
+        <v>9.9833913070466949</v>
       </c>
       <c r="E153" s="0">
-        <v>0.10193358623749882</v>
+        <v>0.10000349356443639</v>
       </c>
       <c r="F153" s="0">
-        <v>0.99209672844515173</v>
+        <v>0.99250763885235216</v>
       </c>
     </row>
     <row r="154">
@@ -3155,16 +3155,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C154" s="0">
-        <v>30.657666500000001</v>
+        <v>15.213234099999999</v>
       </c>
       <c r="D154" s="0">
-        <v>9.5890487461918248</v>
+        <v>9.596200217553525</v>
       </c>
       <c r="E154" s="0">
-        <v>0.063492748252617179</v>
+        <v>0.063706445920371557</v>
       </c>
       <c r="F154" s="0">
-        <v>1.0650683132608834</v>
+        <v>1.0641917570191792</v>
       </c>
     </row>
     <row r="155">
@@ -3175,16 +3175,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C155" s="0">
-        <v>31.3016738</v>
+        <v>15.770687499999999</v>
       </c>
       <c r="D155" s="0">
-        <v>11.509980874440632</v>
+        <v>11.495809745163832</v>
       </c>
       <c r="E155" s="0">
-        <v>0.062253724776308229</v>
+        <v>0.061160130151621986</v>
       </c>
       <c r="F155" s="0">
-        <v>0.65665264245903732</v>
+        <v>0.65772485325463625</v>
       </c>
     </row>
     <row r="156">
@@ -3195,16 +3195,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C156" s="0">
-        <v>30.722019899999999</v>
+        <v>12.6907707</v>
       </c>
       <c r="D156" s="0">
-        <v>9.8616140518893296</v>
+        <v>9.8592467409437905</v>
       </c>
       <c r="E156" s="0">
-        <v>0.10067852505712264</v>
+        <v>0.10110863790562633</v>
       </c>
       <c r="F156" s="0">
-        <v>0.64151635571784926</v>
+        <v>0.64169122274089885</v>
       </c>
     </row>
     <row r="157">
@@ -3215,16 +3215,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C157" s="0">
-        <v>31.6597364</v>
+        <v>16.163255299999999</v>
       </c>
       <c r="D157" s="0">
-        <v>11.637626227735023</v>
+        <v>11.652948915784336</v>
       </c>
       <c r="E157" s="0">
-        <v>0.055211942257077845</v>
+        <v>0.055886290194607939</v>
       </c>
       <c r="F157" s="0">
-        <v>0.52556170573191452</v>
+        <v>0.52463538506069507</v>
       </c>
     </row>
     <row r="158">
@@ -3235,16 +3235,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C158" s="0">
-        <v>30.869618200000001</v>
+        <v>15.491153799999999</v>
       </c>
       <c r="D158" s="0">
-        <v>10.879318366787526</v>
+        <v>10.892862401768916</v>
       </c>
       <c r="E158" s="0">
-        <v>0.11808360456454556</v>
+        <v>0.1176012430029197</v>
       </c>
       <c r="F158" s="0">
-        <v>0.70142323690761166</v>
+        <v>0.70033034967577845</v>
       </c>
     </row>
     <row r="159">
@@ -3255,16 +3255,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C159" s="0">
-        <v>31.05134</v>
+        <v>16.6560162</v>
       </c>
       <c r="D159" s="0">
-        <v>10.248710131116265</v>
+        <v>10.232745448939962</v>
       </c>
       <c r="E159" s="0">
-        <v>0.094286229586680481</v>
+        <v>0.09439831684277504</v>
       </c>
       <c r="F159" s="0">
-        <v>0.74205300934548468</v>
+        <v>0.74341815841986358</v>
       </c>
     </row>
     <row r="160">
@@ -3275,16 +3275,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C160" s="0">
-        <v>30.9710179</v>
+        <v>17.5426751</v>
       </c>
       <c r="D160" s="0">
-        <v>10.628800269883573</v>
+        <v>10.625975098670473</v>
       </c>
       <c r="E160" s="0">
-        <v>0.12411877918241387</v>
+        <v>0.12386511674260491</v>
       </c>
       <c r="F160" s="0">
-        <v>0.65946584377477546</v>
+        <v>0.6596803764277106</v>
       </c>
     </row>
     <row r="161">
@@ -3295,16 +3295,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C161" s="0">
-        <v>31.188708800000001</v>
+        <v>16.1082851</v>
       </c>
       <c r="D161" s="0">
-        <v>10.769424098012141</v>
+        <v>10.773358353722053</v>
       </c>
       <c r="E161" s="0">
-        <v>0.1690119502214065</v>
+        <v>0.16912695492318292</v>
       </c>
       <c r="F161" s="0">
-        <v>0.64008464814025146</v>
+        <v>0.63979478877601659</v>
       </c>
     </row>
     <row r="162">
@@ -3315,16 +3315,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C162" s="0">
-        <v>31.349449199999999</v>
+        <v>15.888791100000001</v>
       </c>
       <c r="D162" s="0">
-        <v>10.28287374861743</v>
+        <v>10.283546642294068</v>
       </c>
       <c r="E162" s="0">
-        <v>0.13809978508070117</v>
+        <v>0.13749042773342501</v>
       </c>
       <c r="F162" s="0">
-        <v>0.60920625151299257</v>
+        <v>0.60915905828658867</v>
       </c>
     </row>
     <row r="163">
@@ -3335,16 +3335,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C163" s="0">
-        <v>30.8371165</v>
+        <v>12.019260900000001</v>
       </c>
       <c r="D163" s="0">
-        <v>9.4880066869313424</v>
+        <v>9.487535758583304</v>
       </c>
       <c r="E163" s="0">
-        <v>0.2131577819289362</v>
+        <v>0.21127842489902918</v>
       </c>
       <c r="F163" s="0">
-        <v>0.63484100846195735</v>
+        <v>0.63487542896976557</v>
       </c>
     </row>
     <row r="164">
@@ -3355,16 +3355,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C164" s="0">
-        <v>24.766346500000001</v>
+        <v>10.3133432</v>
       </c>
       <c r="D164" s="0">
-        <v>9.5940688793680078</v>
+        <v>9.572216905680154</v>
       </c>
       <c r="E164" s="0">
-        <v>0.16348118339390444</v>
+        <v>0.16223644973637102</v>
       </c>
       <c r="F164" s="0">
-        <v>0.6587146678610879</v>
+        <v>0.66037394950963602</v>
       </c>
     </row>
     <row r="165">
@@ -3375,16 +3375,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C165" s="0">
-        <v>30.759366700000001</v>
+        <v>15.282969100000001</v>
       </c>
       <c r="D165" s="0">
-        <v>9.6906046948748354</v>
+        <v>9.6942609899908341</v>
       </c>
       <c r="E165" s="0">
-        <v>0.16770395580925065</v>
+        <v>0.168501887343634</v>
       </c>
       <c r="F165" s="0">
-        <v>0.76819972312630269</v>
+        <v>0.76787642016876878</v>
       </c>
     </row>
     <row r="166">
@@ -3395,16 +3395,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C166" s="0">
-        <v>30.939370400000001</v>
+        <v>15.700833100000001</v>
       </c>
       <c r="D166" s="0">
-        <v>10.506875386454531</v>
+        <v>10.52003735577923</v>
       </c>
       <c r="E166" s="0">
-        <v>0.10130858598311727</v>
+        <v>0.10024975972681986</v>
       </c>
       <c r="F166" s="0">
-        <v>0.4745455486312572</v>
+        <v>0.47382700116286997</v>
       </c>
     </row>
     <row r="167">
@@ -3415,16 +3415,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C167" s="0">
-        <v>30.436133000000002</v>
+        <v>11.1981521</v>
       </c>
       <c r="D167" s="0">
-        <v>9.3191445971634135</v>
+        <v>9.3303663688822276</v>
       </c>
       <c r="E167" s="0">
-        <v>0.11890949096242386</v>
+        <v>0.12009969902075046</v>
       </c>
       <c r="F167" s="0">
-        <v>0.80928690677375548</v>
+        <v>0.80824202026245062</v>
       </c>
     </row>
     <row r="168">
@@ -3435,16 +3435,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C168" s="0">
-        <v>30.648350000000001</v>
+        <v>11.4315432</v>
       </c>
       <c r="D168" s="0">
-        <v>10.158281559869579</v>
+        <v>10.144225039296016</v>
       </c>
       <c r="E168" s="0">
-        <v>0.12311272487217481</v>
+        <v>0.12145617318839792</v>
       </c>
       <c r="F168" s="0">
-        <v>0.83053681127941759</v>
+        <v>0.83188197105518735</v>
       </c>
     </row>
     <row r="169">
@@ -3455,16 +3455,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C169" s="0">
-        <v>31.045270899999998</v>
+        <v>11.3626492</v>
       </c>
       <c r="D169" s="0">
-        <v>10.360125705787013</v>
+        <v>10.371483152503371</v>
       </c>
       <c r="E169" s="0">
-        <v>0.10306760049632439</v>
+        <v>0.10341148685261109</v>
       </c>
       <c r="F169" s="0">
-        <v>0.91745278414316689</v>
+        <v>0.91625393035824165</v>
       </c>
     </row>
     <row r="170">
@@ -3475,16 +3475,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C170" s="0">
-        <v>29.733765699999999</v>
+        <v>10.939293899999999</v>
       </c>
       <c r="D170" s="0">
-        <v>7.6063641985090582</v>
+        <v>7.596857237652622</v>
       </c>
       <c r="E170" s="0">
-        <v>0.022005237038075141</v>
+        <v>0.021429661431508595</v>
       </c>
       <c r="F170" s="0">
-        <v>0.68732119225242483</v>
+        <v>0.68807389730153268</v>
       </c>
     </row>
     <row r="171">
@@ -3495,16 +3495,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C171" s="0">
-        <v>24.5721746</v>
+        <v>9.5378229999999995</v>
       </c>
       <c r="D171" s="0">
-        <v>10.161950617608595</v>
+        <v>10.168608030156081</v>
       </c>
       <c r="E171" s="0">
-        <v>0.20170011665801649</v>
+        <v>0.20302423242209233</v>
       </c>
       <c r="F171" s="0">
-        <v>0.61204781049988399</v>
+        <v>0.61157887826542823</v>
       </c>
     </row>
     <row r="172">
@@ -3515,16 +3515,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C172" s="0">
-        <v>31.2377912</v>
+        <v>12.5986964</v>
       </c>
       <c r="D172" s="0">
-        <v>11.396630451681544</v>
+        <v>11.395795383303559</v>
       </c>
       <c r="E172" s="0">
-        <v>0.15588394558238375</v>
+        <v>0.15610832429848939</v>
       </c>
       <c r="F172" s="0">
-        <v>0.59816489907575221</v>
+        <v>0.59822240989216735</v>
       </c>
     </row>
     <row r="173">
@@ -3535,16 +3535,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C173" s="0">
-        <v>24.823633699999998</v>
+        <v>10.267572599999999</v>
       </c>
       <c r="D173" s="0">
-        <v>10.916320316267306</v>
+        <v>10.930713376550026</v>
       </c>
       <c r="E173" s="0">
-        <v>0.186435943995714</v>
+        <v>0.18703350443103198</v>
       </c>
       <c r="F173" s="0">
-        <v>0.70216883442434186</v>
+        <v>0.70100626041364811</v>
       </c>
     </row>
     <row r="174">
@@ -3555,16 +3555,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C174" s="0">
-        <v>31.100959899999999</v>
+        <v>16.550508000000001</v>
       </c>
       <c r="D174" s="0">
-        <v>11.483936681630489</v>
+        <v>11.475641678387589</v>
       </c>
       <c r="E174" s="0">
-        <v>0.13623634973111509</v>
+        <v>0.13491294022275724</v>
       </c>
       <c r="F174" s="0">
-        <v>0.62131076393030382</v>
+        <v>0.62190439759607752</v>
       </c>
     </row>
     <row r="175">
@@ -3575,16 +3575,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C175" s="0">
-        <v>30.8047173</v>
+        <v>15.312269300000001</v>
       </c>
       <c r="D175" s="0">
-        <v>11.053250745489898</v>
+        <v>11.063788014904425</v>
       </c>
       <c r="E175" s="0">
-        <v>0.12166100692997509</v>
+        <v>0.12154247704278424</v>
       </c>
       <c r="F175" s="0">
-        <v>0.52220834890197676</v>
+        <v>0.52157521702061604</v>
       </c>
     </row>
     <row r="176">
@@ -3595,16 +3595,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C176" s="0">
-        <v>24.8738283</v>
+        <v>10.737290700000001</v>
       </c>
       <c r="D176" s="0">
-        <v>9.9120969570027402</v>
+        <v>9.9134916789281817</v>
       </c>
       <c r="E176" s="0">
-        <v>0.11410212342913406</v>
+        <v>0.115330056425031</v>
       </c>
       <c r="F176" s="0">
-        <v>0.55426054391369983</v>
+        <v>0.55417155161656184</v>
       </c>
     </row>
     <row r="177">
@@ -3615,16 +3615,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C177" s="0">
-        <v>31.877866999999998</v>
+        <v>16.3515865</v>
       </c>
       <c r="D177" s="0">
-        <v>12.625136949209901</v>
+        <v>12.635534960753631</v>
       </c>
       <c r="E177" s="0">
-        <v>0.087574249640322732</v>
+        <v>0.089116594434331911</v>
       </c>
       <c r="F177" s="0">
-        <v>0.47195619117598264</v>
+        <v>0.47139154323147553</v>
       </c>
     </row>
     <row r="178">
@@ -3635,16 +3635,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C178" s="0">
-        <v>30.871024800000001</v>
+        <v>11.8193398</v>
       </c>
       <c r="D178" s="0">
-        <v>10.439920470512746</v>
+        <v>10.445176878175793</v>
       </c>
       <c r="E178" s="0">
-        <v>0.06825040197637737</v>
+        <v>0.068413046630582258</v>
       </c>
       <c r="F178" s="0">
-        <v>0.54891428043445067</v>
+        <v>0.54858219650546602</v>
       </c>
     </row>
     <row r="179">
@@ -3655,16 +3655,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C179" s="0">
-        <v>24.738678</v>
+        <v>9.4739448999999993</v>
       </c>
       <c r="D179" s="0">
-        <v>10.263592757665245</v>
+        <v>10.250374401319524</v>
       </c>
       <c r="E179" s="0">
-        <v>0.099077997667861212</v>
+        <v>0.098578587785394772</v>
       </c>
       <c r="F179" s="0">
-        <v>0.83341586584571781</v>
+        <v>0.83468513993152849</v>
       </c>
     </row>
     <row r="180">
@@ -3675,16 +3675,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C180" s="0">
-        <v>24.9170452</v>
+        <v>9.6150102999999998</v>
       </c>
       <c r="D180" s="0">
-        <v>11.129486443829837</v>
+        <v>11.13791878808544</v>
       </c>
       <c r="E180" s="0">
-        <v>0.092234085281168998</v>
+        <v>0.092214801616238296</v>
       </c>
       <c r="F180" s="0">
-        <v>0.64646891109646498</v>
+        <v>0.64584161747081337</v>
       </c>
     </row>
     <row r="181">
@@ -3695,16 +3695,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C181" s="0">
-        <v>30.579253900000001</v>
+        <v>15.495723399999999</v>
       </c>
       <c r="D181" s="0">
-        <v>9.6325736216246653</v>
+        <v>9.6385063892004155</v>
       </c>
       <c r="E181" s="0">
-        <v>0.13895297806896359</v>
+        <v>0.13764558243314526</v>
       </c>
       <c r="F181" s="0">
-        <v>0.81450633296765573</v>
+        <v>0.8139501865011336</v>
       </c>
     </row>
     <row r="182">
@@ -3715,16 +3715,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C182" s="0">
-        <v>31.152032699999999</v>
+        <v>15.6438527</v>
       </c>
       <c r="D182" s="0">
-        <v>10.995976900414048</v>
+        <v>11.02181460250816</v>
       </c>
       <c r="E182" s="0">
-        <v>0.067777437572543689</v>
+        <v>0.068841049125557108</v>
       </c>
       <c r="F182" s="0">
-        <v>0.62466448979995859</v>
+        <v>0.62280907671290409</v>
       </c>
     </row>
     <row r="183">
@@ -3735,16 +3735,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C183" s="0">
-        <v>30.887762299999999</v>
+        <v>11.6311585</v>
       </c>
       <c r="D183" s="0">
-        <v>10.119784164445456</v>
+        <v>10.123506459399918</v>
       </c>
       <c r="E183" s="0">
-        <v>0.10754986232943811</v>
+        <v>0.10792479801681847</v>
       </c>
       <c r="F183" s="0">
-        <v>0.78110380599096685</v>
+        <v>0.78076913954124583</v>
       </c>
     </row>
     <row r="184">
@@ -3755,16 +3755,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C184" s="0">
-        <v>30.8578358</v>
+        <v>16.4624445</v>
       </c>
       <c r="D184" s="0">
-        <v>10.603951251746281</v>
+        <v>10.602145559885807</v>
       </c>
       <c r="E184" s="0">
-        <v>0.10977560893902401</v>
+        <v>0.10967932367761166</v>
       </c>
       <c r="F184" s="0">
-        <v>0.51775177096915481</v>
+        <v>0.51785941651630352</v>
       </c>
     </row>
     <row r="185">
@@ -3775,16 +3775,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C185" s="0">
-        <v>24.996417099999999</v>
+        <v>9.8466173000000001</v>
       </c>
       <c r="D185" s="0">
-        <v>12.080877658986338</v>
+        <v>12.073890023932615</v>
       </c>
       <c r="E185" s="0">
-        <v>0.048431178794895315</v>
+        <v>0.049077001925148189</v>
       </c>
       <c r="F185" s="0">
-        <v>0.5453619790015426</v>
+        <v>0.54580088899304779</v>
       </c>
     </row>
     <row r="186">
@@ -3795,16 +3795,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C186" s="0">
-        <v>30.965945900000001</v>
+        <v>17.280797700000001</v>
       </c>
       <c r="D186" s="0">
-        <v>10.590660131377582</v>
+        <v>10.607899265197364</v>
       </c>
       <c r="E186" s="0">
-        <v>0.15413351652277338</v>
+        <v>0.1542567249780126</v>
       </c>
       <c r="F186" s="0">
-        <v>0.57358727852116942</v>
+        <v>0.57244999240461725</v>
       </c>
     </row>
     <row r="187">
@@ -3815,16 +3815,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C187" s="0">
-        <v>31.053941600000002</v>
+        <v>16.009908899999999</v>
       </c>
       <c r="D187" s="0">
-        <v>11.652439996235266</v>
+        <v>11.650970670852034</v>
       </c>
       <c r="E187" s="0">
-        <v>0.12091020675646204</v>
+        <v>0.12191466906314305</v>
       </c>
       <c r="F187" s="0">
-        <v>0.58255286292607089</v>
+        <v>0.58265141726493497</v>
       </c>
     </row>
     <row r="188">
@@ -3835,16 +3835,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C188" s="0">
-        <v>30.6517886</v>
+        <v>12.2787779</v>
       </c>
       <c r="D188" s="0">
-        <v>9.696038294044973</v>
+        <v>9.7083405659216737</v>
       </c>
       <c r="E188" s="0">
-        <v>0.096414885162266387</v>
+        <v>0.096237239283193096</v>
       </c>
       <c r="F188" s="0">
-        <v>0.55695795688899763</v>
+        <v>0.55616966709111515</v>
       </c>
     </row>
     <row r="189">
@@ -3855,16 +3855,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C189" s="0">
-        <v>30.827168</v>
+        <v>12.1892821</v>
       </c>
       <c r="D189" s="0">
-        <v>10.287587460161907</v>
+        <v>10.288753537099744</v>
       </c>
       <c r="E189" s="0">
-        <v>0.12984616687718667</v>
+        <v>0.13012298158478963</v>
       </c>
       <c r="F189" s="0">
-        <v>0.4622429265226442</v>
+        <v>0.46218087477441949</v>
       </c>
     </row>
     <row r="190">
@@ -3875,16 +3875,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C190" s="0">
-        <v>30.920076399999999</v>
+        <v>12.2800309</v>
       </c>
       <c r="D190" s="0">
-        <v>11.272539197722985</v>
+        <v>11.2707860864745</v>
       </c>
       <c r="E190" s="0">
-        <v>0.15302804493590805</v>
+        <v>0.15300887443007261</v>
       </c>
       <c r="F190" s="0">
-        <v>0.61623590427026642</v>
+        <v>0.61636029442161921</v>
       </c>
     </row>
     <row r="191">
@@ -3895,16 +3895,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C191" s="0">
-        <v>30.716475899999999</v>
+        <v>12.110484</v>
       </c>
       <c r="D191" s="0">
-        <v>9.6260423299670244</v>
+        <v>9.6159046908901775</v>
       </c>
       <c r="E191" s="0">
-        <v>0.085828089956709389</v>
+        <v>0.085136133702719816</v>
       </c>
       <c r="F191" s="0">
-        <v>0.45577897543675289</v>
+        <v>0.45631124333210049</v>
       </c>
     </row>
     <row r="192">
@@ -3915,16 +3915,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C192" s="0">
-        <v>31.963036500000001</v>
+        <v>18.410916100000001</v>
       </c>
       <c r="D192" s="0">
-        <v>11.460927909510271</v>
+        <v>11.461714347231219</v>
       </c>
       <c r="E192" s="0">
-        <v>0.15530534096997078</v>
+        <v>0.15664697305491815</v>
       </c>
       <c r="F192" s="0">
-        <v>0.43770244856242324</v>
+        <v>0.43766281990635236</v>
       </c>
     </row>
     <row r="193">
@@ -3935,16 +3935,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C193" s="0">
-        <v>24.979984399999999</v>
+        <v>9.8708109999999998</v>
       </c>
       <c r="D193" s="0">
-        <v>10.912780202204239</v>
+        <v>10.934899724751375</v>
       </c>
       <c r="E193" s="0">
-        <v>0.16132408395369391</v>
+        <v>0.16379642731086708</v>
       </c>
       <c r="F193" s="0">
-        <v>0.51471142307724138</v>
+        <v>0.51340232441975076</v>
       </c>
     </row>
     <row r="194">
@@ -3955,16 +3955,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C194" s="0">
-        <v>24.854225799999998</v>
+        <v>9.9097120000000007</v>
       </c>
       <c r="D194" s="0">
-        <v>10.353818233088434</v>
+        <v>10.361170401526271</v>
       </c>
       <c r="E194" s="0">
-        <v>0.10657445229705724</v>
+        <v>0.10698105752905779</v>
       </c>
       <c r="F194" s="0">
-        <v>0.792649423569041</v>
+        <v>0.79197876960166447</v>
       </c>
     </row>
     <row r="195">
@@ -3975,16 +3975,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C195" s="0">
-        <v>30.949809800000001</v>
+        <v>16.431376799999999</v>
       </c>
       <c r="D195" s="0">
-        <v>10.934914381147006</v>
+        <v>10.920548506347075</v>
       </c>
       <c r="E195" s="0">
-        <v>0.245673262037513</v>
+        <v>0.24442299487468547</v>
       </c>
       <c r="F195" s="0">
-        <v>0.508876485544969</v>
+        <v>0.50971882927938372</v>
       </c>
     </row>
     <row r="196">
@@ -3995,16 +3995,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C196" s="0">
-        <v>30.7513489</v>
+        <v>12.212570700000001</v>
       </c>
       <c r="D196" s="0">
-        <v>10.461973684675456</v>
+        <v>10.486867506194482</v>
       </c>
       <c r="E196" s="0">
-        <v>0.17104066702512916</v>
+        <v>0.17126363878031389</v>
       </c>
       <c r="F196" s="0">
-        <v>0.76910610697280091</v>
+        <v>0.76690499909866305</v>
       </c>
     </row>
     <row r="197">
@@ -4015,16 +4015,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C197" s="0">
-        <v>31.2113394</v>
+        <v>16.679670699999999</v>
       </c>
       <c r="D197" s="0">
-        <v>12.050910361591106</v>
+        <v>12.063445942675848</v>
       </c>
       <c r="E197" s="0">
-        <v>0.093807710785132739</v>
+        <v>0.094270441438512625</v>
       </c>
       <c r="F197" s="0">
-        <v>0.4748337135122967</v>
+        <v>0.47414892201674536</v>
       </c>
     </row>
     <row r="198">
@@ -4035,16 +4035,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C198" s="0">
-        <v>31.075808899999998</v>
+        <v>16.945871</v>
       </c>
       <c r="D198" s="0">
-        <v>11.102127693560808</v>
+        <v>11.098891491223535</v>
       </c>
       <c r="E198" s="0">
-        <v>0.075023226567229415</v>
+        <v>0.074366385206186075</v>
       </c>
       <c r="F198" s="0">
-        <v>0.6661947446229225</v>
+        <v>0.66644300274745438</v>
       </c>
     </row>
     <row r="199">
@@ -4055,16 +4055,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C199" s="0">
-        <v>31.012740300000001</v>
+        <v>16.426362900000001</v>
       </c>
       <c r="D199" s="0">
-        <v>11.76600823731896</v>
+        <v>11.782007678629416</v>
       </c>
       <c r="E199" s="0">
-        <v>0.10588117186820754</v>
+        <v>0.10734209750916986</v>
       </c>
       <c r="F199" s="0">
-        <v>0.64315056669334769</v>
+        <v>0.64196697136400682</v>
       </c>
     </row>
     <row r="200">
@@ -4075,16 +4075,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C200" s="0">
-        <v>30.955862199999999</v>
+        <v>16.2920588</v>
       </c>
       <c r="D200" s="0">
-        <v>10.635265427888715</v>
+        <v>10.641532615262342</v>
       </c>
       <c r="E200" s="0">
-        <v>0.10320174558333149</v>
+        <v>0.10363066389558034</v>
       </c>
       <c r="F200" s="0">
-        <v>0.73922718001993792</v>
+        <v>0.73869399292578808</v>
       </c>
     </row>
     <row r="201">
@@ -4095,16 +4095,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C201" s="0">
-        <v>24.3019435</v>
+        <v>9.8324374999999993</v>
       </c>
       <c r="D201" s="0">
-        <v>8.6550678059469508</v>
+        <v>8.6279655348257798</v>
       </c>
       <c r="E201" s="0">
-        <v>0.076245404938480019</v>
+        <v>0.076713313833645977</v>
       </c>
       <c r="F201" s="0">
-        <v>1.0835797617422986</v>
+        <v>1.0869660973438831</v>
       </c>
     </row>
     <row r="202">
@@ -4115,16 +4115,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C202" s="0">
-        <v>31.021051100000001</v>
+        <v>13.402798799999999</v>
       </c>
       <c r="D202" s="0">
-        <v>10.559529467085614</v>
+        <v>10.558884575567482</v>
       </c>
       <c r="E202" s="0">
-        <v>0.13005306206040762</v>
+        <v>0.13160432917243439</v>
       </c>
       <c r="F202" s="0">
-        <v>0.74828597517938222</v>
+        <v>0.74834153439245676</v>
       </c>
     </row>
     <row r="203">
@@ -4135,16 +4135,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C203" s="0">
-        <v>24.9900339</v>
+        <v>9.3915482000000008</v>
       </c>
       <c r="D203" s="0">
-        <v>11.000279767422196</v>
+        <v>10.995392415658451</v>
       </c>
       <c r="E203" s="0">
-        <v>0.10474618960571037</v>
+        <v>0.10438728854639753</v>
       </c>
       <c r="F203" s="0">
-        <v>0.6142704878828108</v>
+        <v>0.614616221118926</v>
       </c>
     </row>
     <row r="204">
@@ -4155,16 +4155,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C204" s="0">
-        <v>30.884961000000001</v>
+        <v>11.122783699999999</v>
       </c>
       <c r="D204" s="0">
-        <v>9.3347097843906912</v>
+        <v>9.330694325173825</v>
       </c>
       <c r="E204" s="0">
-        <v>0.075321043417431108</v>
+        <v>0.075037759849406319</v>
       </c>
       <c r="F204" s="0">
-        <v>0.91052946642982735</v>
+        <v>0.91095049862621635</v>
       </c>
     </row>
     <row r="205">
@@ -4175,16 +4175,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C205" s="0">
-        <v>30.405012899999999</v>
+        <v>11.129952400000001</v>
       </c>
       <c r="D205" s="0">
-        <v>8.8851017479928505</v>
+        <v>8.9148454956577048</v>
       </c>
       <c r="E205" s="0">
-        <v>0.10337984639762104</v>
+        <v>0.10275363920056171</v>
       </c>
       <c r="F205" s="0">
-        <v>0.57440802253013368</v>
+        <v>0.57244439778434941</v>
       </c>
     </row>
   </sheetData>
